--- a/BackTest/2019-10-25 BackTest DAC.xlsx
+++ b/BackTest/2019-10-25 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,17 +484,11 @@
         <v>-645308.4743</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>3.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>-363362.7603</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -562,17 +550,11 @@
         <v>-598770.6123</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -601,17 +583,11 @@
         <v>-727780.0173000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,17 +616,11 @@
         <v>-424747.9223000001</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -679,17 +649,11 @@
         <v>-723862.7073000001</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -718,17 +682,11 @@
         <v>-478919.8133000002</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -757,17 +715,11 @@
         <v>-727591.7643000002</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -796,17 +748,11 @@
         <v>-727591.7643000002</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -835,17 +781,11 @@
         <v>-727591.7643000002</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -874,17 +814,11 @@
         <v>-418544.3993000002</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -913,17 +847,11 @@
         <v>-714702.8943000002</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>3.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -952,17 +880,11 @@
         <v>-466951.1653000002</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -991,17 +913,11 @@
         <v>-466951.1653000002</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1030,17 +946,11 @@
         <v>-466951.1653000002</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1069,17 +979,11 @@
         <v>-723789.1843000002</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1108,17 +1012,11 @@
         <v>-877779.6053000002</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1147,17 +1045,11 @@
         <v>-372835.9403000002</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1186,17 +1078,11 @@
         <v>-494555.4973000002</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1225,17 +1111,11 @@
         <v>-494555.4973000002</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1264,17 +1144,11 @@
         <v>-177597.4943000001</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1303,17 +1177,11 @@
         <v>-177597.4943000001</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>3.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1342,17 +1210,11 @@
         <v>-177597.4943000001</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>3.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1381,17 +1243,11 @@
         <v>-405966.7253000002</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1420,17 +1276,11 @@
         <v>-405966.7253000002</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1459,17 +1309,11 @@
         <v>-86397.45530000015</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1498,17 +1342,11 @@
         <v>90755.51969999986</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1537,17 +1375,11 @@
         <v>90755.51969999986</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1576,17 +1408,11 @@
         <v>90755.51969999986</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>3.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1615,17 +1441,11 @@
         <v>-171951.7633000001</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1654,17 +1474,11 @@
         <v>-50077.17530000013</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>3.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1693,17 +1507,11 @@
         <v>-268049.1743000001</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1732,17 +1540,11 @@
         <v>115030.9926999999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1771,17 +1573,11 @@
         <v>-147577.1803000001</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="n">
-        <v>3.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1810,17 +1606,11 @@
         <v>-147577.1803000001</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>3.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1849,17 +1639,11 @@
         <v>-441332.1143000001</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1888,17 +1672,11 @@
         <v>-167258.0143000002</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1927,17 +1705,11 @@
         <v>-308722.7683000001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>3.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1966,17 +1738,11 @@
         <v>-308722.7683000001</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2005,17 +1771,11 @@
         <v>14595.50169999991</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2044,17 +1804,11 @@
         <v>14595.50169999991</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
-      </c>
-      <c r="I43" t="n">
-        <v>3.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2083,17 +1837,11 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2122,17 +1870,11 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
-      </c>
-      <c r="I45" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2161,17 +1903,11 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
-      </c>
-      <c r="I46" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2200,17 +1936,11 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
-      </c>
-      <c r="I47" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2239,17 +1969,11 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
-      </c>
-      <c r="I48" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2278,17 +2002,11 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
-      </c>
-      <c r="I49" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2317,17 +2035,11 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2356,17 +2068,11 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2395,17 +2101,11 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2434,17 +2134,11 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2473,17 +2167,11 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2512,17 +2200,11 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2551,17 +2233,11 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
-      </c>
-      <c r="I56" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2590,17 +2266,11 @@
         <v>-292526.6583000001</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
-      </c>
-      <c r="I57" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2629,17 +2299,11 @@
         <v>-47293.77830000006</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
-      </c>
-      <c r="I58" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2668,17 +2332,11 @@
         <v>-47293.77830000006</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2707,17 +2365,11 @@
         <v>-354259.8873000001</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2746,17 +2398,11 @@
         <v>-354259.8873000001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2785,17 +2431,11 @@
         <v>-354259.8873000001</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>3.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2824,17 +2464,11 @@
         <v>-95745.23730000007</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2863,17 +2497,11 @@
         <v>-95745.23730000007</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
-      </c>
-      <c r="I64" t="n">
-        <v>3.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2902,17 +2530,11 @@
         <v>-373764.2743</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
-      </c>
-      <c r="I65" t="n">
-        <v>3.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2941,17 +2563,11 @@
         <v>73449.39669999992</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2980,17 +2596,11 @@
         <v>73449.39669999992</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>3.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3019,17 +2629,11 @@
         <v>-186098.1903000001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3058,17 +2662,11 @@
         <v>-1617273.3657</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3097,17 +2695,11 @@
         <v>-1329143.5527</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3136,17 +2728,11 @@
         <v>-1431704.5243</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3175,17 +2761,11 @@
         <v>-1676134.3715</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>3.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3214,17 +2794,11 @@
         <v>-1511647.4717</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3253,17 +2827,11 @@
         <v>-1511647.4717</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>3.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3292,17 +2860,11 @@
         <v>-1491592.0457</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>3.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3331,17 +2893,11 @@
         <v>-1499719.0457</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
-      </c>
-      <c r="I76" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3370,17 +2926,11 @@
         <v>-1286144.7587</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3409,17 +2959,11 @@
         <v>-869678.2227</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
-      </c>
-      <c r="I78" t="n">
-        <v>3.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3448,17 +2992,11 @@
         <v>-1346168.3892</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
-      </c>
-      <c r="I79" t="n">
-        <v>3.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3487,17 +3025,11 @@
         <v>-1046126.9492</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
-      </c>
-      <c r="I80" t="n">
-        <v>3.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3526,17 +3058,11 @@
         <v>-1168287.0712</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3565,17 +3091,11 @@
         <v>-850609.9092000001</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3604,17 +3124,11 @@
         <v>-736159.4542000002</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
-      </c>
-      <c r="I83" t="n">
-        <v>3.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3643,17 +3157,11 @@
         <v>-1253518.6107</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3682,17 +3190,11 @@
         <v>-1532571.5527</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
-      </c>
-      <c r="I85" t="n">
-        <v>3.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3721,17 +3223,11 @@
         <v>-1532571.5527</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
-      </c>
-      <c r="I86" t="n">
-        <v>3.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3764,11 +3260,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3797,17 +3289,11 @@
         <v>-1556944.7783</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
-      </c>
-      <c r="I88" t="n">
-        <v>3.08</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3836,17 +3322,11 @@
         <v>-1140682.6319</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3879,11 +3359,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3916,11 +3392,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3953,11 +3425,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3990,11 +3458,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4027,11 +3491,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4064,11 +3524,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4101,11 +3557,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4138,11 +3590,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4175,11 +3623,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4212,11 +3656,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4249,11 +3689,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4282,17 +3718,11 @@
         <v>-622122.3632000004</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4325,11 +3755,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4362,11 +3788,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4399,11 +3821,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4436,11 +3854,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4473,11 +3887,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4510,11 +3920,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4547,11 +3953,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4584,11 +3986,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4621,11 +4019,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4658,11 +4052,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4695,11 +4085,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4728,17 +4114,11 @@
         <v>-200003.5553000004</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
-      </c>
-      <c r="I113" t="n">
-        <v>3.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4771,11 +4151,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4808,11 +4184,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4845,11 +4217,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4882,11 +4250,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4919,11 +4283,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4956,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4993,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5030,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5067,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5141,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5174,17 +4510,11 @@
         <v>217898.2891999996</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
-      </c>
-      <c r="I125" t="n">
-        <v>3.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5213,17 +4543,11 @@
         <v>529229.9306999997</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
-      </c>
-      <c r="I126" t="n">
-        <v>3.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5252,17 +4576,11 @@
         <v>529229.9306999997</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
-      </c>
-      <c r="I127" t="n">
-        <v>3.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5291,17 +4609,11 @@
         <v>792023.2102999997</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
-      </c>
-      <c r="I128" t="n">
-        <v>3.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5334,11 +4646,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5371,11 +4679,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5408,11 +4712,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5445,11 +4745,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5482,11 +4778,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5519,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5556,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5593,11 +4877,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5630,11 +4910,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5667,11 +4943,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5704,11 +4976,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5741,11 +5009,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5778,11 +5042,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5815,11 +5075,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5852,11 +5108,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5885,16 +5137,14 @@
         <v>1160445.503899999</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
       <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
@@ -5920,7 +5170,7 @@
         <v>1160445.503899999</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5953,7 +5203,7 @@
         <v>1438567.3069</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5986,7 +5236,7 @@
         <v>1324749.2349</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -6019,7 +5269,7 @@
         <v>1526875.0829</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6118,7 +5368,7 @@
         <v>1309172.6699</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6184,7 +5434,7 @@
         <v>1336845.7809</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6217,7 +5467,7 @@
         <v>1558150.7009</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6250,7 +5500,7 @@
         <v>1558150.7009</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6283,7 +5533,7 @@
         <v>1558150.7009</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6316,7 +5566,7 @@
         <v>1305143.9339</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6349,7 +5599,7 @@
         <v>1305143.9339</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6382,7 +5632,7 @@
         <v>1305143.9339</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6415,7 +5665,7 @@
         <v>1305143.9339</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6448,7 +5698,7 @@
         <v>1610040.5909</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6481,7 +5731,7 @@
         <v>1345054.2679</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6514,7 +5764,7 @@
         <v>1683161.7629</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6547,7 +5797,7 @@
         <v>1431039.9909</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6580,7 +5830,7 @@
         <v>1872164.6009</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6613,7 +5863,7 @@
         <v>1872164.6009</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6646,7 +5896,7 @@
         <v>1578850.2849</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6679,7 +5929,7 @@
         <v>1842547.5429</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6712,7 +5962,7 @@
         <v>1543456.6149</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6745,7 +5995,7 @@
         <v>1082360.5549</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6778,7 +6028,7 @@
         <v>1082360.5549</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6811,7 +6061,7 @@
         <v>1358679.9609</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6844,7 +6094,7 @@
         <v>1043757.0639</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6877,7 +6127,7 @@
         <v>1467758.3029</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6910,7 +6160,7 @@
         <v>1764799.9479</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6943,7 +6193,7 @@
         <v>1764799.9479</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6976,7 +6226,7 @@
         <v>1764799.9479</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7009,7 +6259,7 @@
         <v>1498479.9349</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -7042,7 +6292,7 @@
         <v>1138219.9619</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -7075,7 +6325,7 @@
         <v>1257234.5819</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -7108,7 +6358,7 @@
         <v>972620.3308999997</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -7141,7 +6391,7 @@
         <v>972620.3308999997</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -7174,7 +6424,7 @@
         <v>1297237.7099</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7207,7 +6457,7 @@
         <v>1439832.9069</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7240,7 +6490,7 @@
         <v>1533416.3836</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7273,7 +6523,7 @@
         <v>1659560.0606</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7306,7 +6556,7 @@
         <v>1392984.153599999</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7339,7 +6589,7 @@
         <v>1134423.981599999</v>
       </c>
       <c r="H188" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7372,7 +6622,7 @@
         <v>821625.1185999993</v>
       </c>
       <c r="H189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7405,7 +6655,7 @@
         <v>821625.1185999993</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7438,7 +6688,7 @@
         <v>1041625.118599999</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7471,7 +6721,7 @@
         <v>-700175.0399000006</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7504,7 +6754,7 @@
         <v>-402870.2589000005</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7537,7 +6787,7 @@
         <v>-402870.2589000005</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7570,7 +6820,7 @@
         <v>-402870.2589000005</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7603,7 +6853,7 @@
         <v>-402870.2589000005</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7636,7 +6886,7 @@
         <v>-402870.2589000005</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7669,7 +6919,7 @@
         <v>-402870.2589000005</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7702,7 +6952,7 @@
         <v>-402870.2589000005</v>
       </c>
       <c r="H199" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7735,7 +6985,7 @@
         <v>-694969.8977778121</v>
       </c>
       <c r="H200" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7768,7 +7018,7 @@
         <v>-379937.7277778121</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7801,7 +7051,7 @@
         <v>-735252.1167778121</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7834,7 +7084,7 @@
         <v>-1070627.501777812</v>
       </c>
       <c r="H203" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7867,7 +7117,7 @@
         <v>-1338526.383477812</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7900,7 +7150,7 @@
         <v>-1082683.145477812</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7933,7 +7183,7 @@
         <v>-1420689.679977812</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7966,7 +7216,7 @@
         <v>-1158186.431977812</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7999,7 +7249,7 @@
         <v>-1436407.895977812</v>
       </c>
       <c r="H208" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8032,7 +7282,7 @@
         <v>-1138881.803977812</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8065,7 +7315,7 @@
         <v>-1477730.057977812</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8098,7 +7348,7 @@
         <v>-1205115.748977812</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8131,7 +7381,7 @@
         <v>-1469988.917977812</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8164,7 +7414,7 @@
         <v>-1178207.722977812</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8197,7 +7447,7 @@
         <v>-1178207.722977812</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8230,7 +7480,7 @@
         <v>-1553913.748977812</v>
       </c>
       <c r="H215" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8263,7 +7513,7 @@
         <v>-1299844.607977812</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8296,7 +7546,7 @@
         <v>-1046876.996977812</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -8329,7 +7579,7 @@
         <v>-1349368.186977812</v>
       </c>
       <c r="H218" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -8362,7 +7612,7 @@
         <v>-1077690.616977812</v>
       </c>
       <c r="H219" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -8395,7 +7645,7 @@
         <v>-1077690.616977812</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -8428,7 +7678,7 @@
         <v>-771270.1859778118</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -8461,7 +7711,7 @@
         <v>-1065726.287977812</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -8494,7 +7744,7 @@
         <v>-1065726.287977812</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -8527,7 +7777,7 @@
         <v>-1065726.287977812</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -8560,7 +7810,7 @@
         <v>-1065726.287977812</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -8593,7 +7843,7 @@
         <v>-578552.9729778119</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8626,7 +7876,7 @@
         <v>-1071542.200977812</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8659,7 +7909,7 @@
         <v>-775532.6279778121</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8692,7 +7942,7 @@
         <v>-527271.9689778121</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8725,7 +7975,7 @@
         <v>-527271.9689778121</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8758,7 +8008,7 @@
         <v>-527271.9689778121</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8791,7 +8041,7 @@
         <v>-527271.9689778121</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8824,7 +8074,7 @@
         <v>-834890.6959778122</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8857,7 +8107,7 @@
         <v>-556076.3679778122</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8890,7 +8140,7 @@
         <v>-717625.6319778122</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8923,7 +8173,7 @@
         <v>-1050719.617977812</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8956,7 +8206,7 @@
         <v>-790723.8569778122</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8989,7 +8239,7 @@
         <v>-485690.9329778122</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9022,7 +8272,7 @@
         <v>-485690.9329778122</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -9055,7 +8305,7 @@
         <v>-485690.9329778122</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -9088,7 +8338,7 @@
         <v>-485690.9329778122</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -9121,7 +8371,7 @@
         <v>-657512.0159778122</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -9154,7 +8404,7 @@
         <v>-441854.5199778122</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -9187,7 +8437,7 @@
         <v>-441854.5199778122</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -9220,7 +8470,7 @@
         <v>-612484.3619778121</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -9253,7 +8503,7 @@
         <v>-298631.9579778122</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -9286,7 +8536,7 @@
         <v>-535433.0039778121</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9319,7 +8569,7 @@
         <v>-535433.0039778121</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9352,7 +8602,7 @@
         <v>-238776.1869778121</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -9385,7 +8635,7 @@
         <v>-370799.4359778122</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -9418,7 +8668,7 @@
         <v>-710573.9289778122</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9451,7 +8701,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9484,7 +8734,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9517,7 +8767,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9550,7 +8800,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9583,7 +8833,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9616,7 +8866,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9649,7 +8899,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9682,7 +8932,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9715,7 +8965,7 @@
         <v>-779161.8259778122</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -9748,7 +8998,7 @@
         <v>-1029809.235977812</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9781,7 +9031,7 @@
         <v>-811983.0809778122</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9814,7 +9064,7 @@
         <v>-811983.0809778122</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9847,7 +9097,7 @@
         <v>-811983.0809778122</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9880,7 +9130,7 @@
         <v>-708932.0169778122</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9913,7 +9163,7 @@
         <v>-708932.0169778122</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9946,7 +9196,7 @@
         <v>-983953.5609778122</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9979,7 +9229,7 @@
         <v>-983953.5609778122</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10012,7 +9262,7 @@
         <v>-722146.2639778121</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10045,7 +9295,7 @@
         <v>-979303.1469778122</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10078,7 +9328,7 @@
         <v>-979303.1469778122</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10111,7 +9361,7 @@
         <v>-1415964.993177812</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10144,7 +9394,7 @@
         <v>-1024931.567177812</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10177,7 +9427,7 @@
         <v>-710609.791177812</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -10210,7 +9460,7 @@
         <v>-991047.458177812</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10243,7 +9493,7 @@
         <v>-737372.5031778121</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -10276,7 +9526,7 @@
         <v>-933031.7311778121</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -10309,7 +9559,7 @@
         <v>-933031.7311778121</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10342,7 +9592,7 @@
         <v>-933031.7311778121</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -10375,7 +9625,7 @@
         <v>-649843.2491778121</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -10408,7 +9658,7 @@
         <v>-1006135.632177812</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -13609,7 +12859,7 @@
         <v>-317614.1442778113</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13642,7 +12892,7 @@
         <v>-631380.3002778112</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13675,7 +12925,7 @@
         <v>-525482.6352778112</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13774,7 +13024,7 @@
         <v>-245380.0522778113</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13807,7 +13057,7 @@
         <v>-245380.0522778113</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13873,7 +13123,7 @@
         <v>-53843.69027781131</v>
       </c>
       <c r="H386" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13906,7 +13156,7 @@
         <v>-477656.8482778113</v>
       </c>
       <c r="H387" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13939,7 +13189,7 @@
         <v>-72826.22527781129</v>
       </c>
       <c r="H388" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13972,7 +13222,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H389" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14005,7 +13255,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H390" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14038,7 +13288,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H391" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14071,7 +13321,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H392" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14137,7 +13387,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H394" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14170,7 +13420,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H395" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14203,7 +13453,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H396" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14236,7 +13486,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H397" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14269,7 +13519,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H398" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14302,7 +13552,7 @@
         <v>42486.4328221887</v>
       </c>
       <c r="H399" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14665,7 +13915,7 @@
         <v>298645.2030221886</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14698,7 +13948,7 @@
         <v>582457.2670221885</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -14995,7 +14245,7 @@
         <v>247713.5150221885</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15028,7 +14278,7 @@
         <v>380004.4410221885</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15061,7 +14311,7 @@
         <v>199274.8030221885</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15193,7 +14443,7 @@
         <v>1061184.746022189</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15259,7 +14509,7 @@
         <v>1249900.488022189</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15325,7 +14575,7 @@
         <v>747890.0730221886</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15391,7 +14641,7 @@
         <v>747890.0730221886</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15424,7 +14674,7 @@
         <v>988733.0413221887</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15457,7 +14707,7 @@
         <v>988733.0413221887</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15490,7 +14740,7 @@
         <v>839554.1383221888</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15589,7 +14839,7 @@
         <v>1386375.217022188</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15655,7 +14905,7 @@
         <v>988580.0840221886</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15688,7 +14938,7 @@
         <v>988580.0840221886</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15721,7 +14971,7 @@
         <v>988580.0840221886</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15754,7 +15004,7 @@
         <v>1106066.872022189</v>
       </c>
       <c r="H443" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15787,7 +15037,7 @@
         <v>839660.9920221885</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15820,7 +15070,7 @@
         <v>856134.9920221885</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15853,7 +15103,7 @@
         <v>846283.9920221885</v>
       </c>
       <c r="H446" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15952,7 +15202,7 @@
         <v>1469945.369722188</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15985,7 +15235,7 @@
         <v>1501330.595722188</v>
       </c>
       <c r="H450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16018,7 +15268,7 @@
         <v>1501330.595722188</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16150,7 +15400,7 @@
         <v>1242136.504622189</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16183,7 +15433,7 @@
         <v>795443.0436221886</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16249,7 +15499,7 @@
         <v>442500.0914221886</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16315,7 +15565,7 @@
         <v>825964.8284221888</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -16348,7 +15598,7 @@
         <v>825964.8284221888</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16381,7 +15631,7 @@
         <v>814690.6768221888</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16414,7 +15664,7 @@
         <v>1404715.980822189</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16447,7 +15697,7 @@
         <v>1204764.138822189</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -16480,7 +15730,7 @@
         <v>1204764.138822189</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -16513,7 +15763,7 @@
         <v>1543911.319322189</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -16546,7 +15796,7 @@
         <v>875668.5893221889</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -16579,7 +15829,7 @@
         <v>1003003.275322189</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -16612,7 +15862,7 @@
         <v>1011935.163322189</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -16645,7 +15895,7 @@
         <v>1011935.163322189</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -16678,7 +15928,7 @@
         <v>863157.1833221889</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -16711,7 +15961,7 @@
         <v>863157.1833221889</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16744,7 +15994,7 @@
         <v>1051321.546322189</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16777,7 +16027,7 @@
         <v>1031124.546322189</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16810,7 +16060,7 @@
         <v>1148447.149322189</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16843,7 +16093,7 @@
         <v>993215.1953221889</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16876,7 +16126,7 @@
         <v>1113744.667322189</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16909,7 +16159,7 @@
         <v>1123933.667322189</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16942,7 +16192,7 @@
         <v>799370.0132221889</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16975,7 +16225,7 @@
         <v>1091596.490222189</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17008,7 +16258,7 @@
         <v>1091596.490222189</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17041,7 +16291,7 @@
         <v>810479.1022221888</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17074,7 +16324,7 @@
         <v>810479.1022221888</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -17107,7 +16357,7 @@
         <v>500416.5642221888</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -17140,7 +16390,7 @@
         <v>190046.9242221888</v>
       </c>
       <c r="H485" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -17173,7 +16423,7 @@
         <v>319836.2952221888</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -17206,7 +16456,7 @@
         <v>566020.3512221888</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -17239,7 +16489,7 @@
         <v>279797.1102221888</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -17272,7 +16522,7 @@
         <v>508732.6982221888</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17305,7 +16555,7 @@
         <v>178452.0262221888</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17338,7 +16588,7 @@
         <v>178452.0262221888</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17371,7 +16621,7 @@
         <v>204177.0262221888</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17404,7 +16654,7 @@
         <v>182245.0262221888</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17437,7 +16687,7 @@
         <v>518458.6542221888</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17470,7 +16720,7 @@
         <v>709124.7172221888</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -17503,7 +16753,7 @@
         <v>534770.2662221888</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -17536,7 +16786,7 @@
         <v>534770.2662221888</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -17569,7 +16819,7 @@
         <v>534770.2662221888</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -17602,7 +16852,7 @@
         <v>663591.5102221889</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -17635,7 +16885,7 @@
         <v>389463.4502221889</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -17668,7 +16918,7 @@
         <v>389463.4502221889</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -17701,7 +16951,7 @@
         <v>687235.9502221888</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -17734,7 +16984,7 @@
         <v>435617.7972221888</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17767,7 +17017,7 @@
         <v>729662.3342221889</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17800,7 +17050,7 @@
         <v>467984.9582221889</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17833,7 +17083,7 @@
         <v>194263.5682221889</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17866,7 +17116,7 @@
         <v>438563.5312221889</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17899,7 +17149,7 @@
         <v>611346.3612221889</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17932,7 +17182,7 @@
         <v>866242.2192221889</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17965,7 +17215,7 @@
         <v>866242.2192221889</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17998,7 +17248,7 @@
         <v>1163998.633222189</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18031,7 +17281,7 @@
         <v>1451027.924222189</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18064,7 +17314,7 @@
         <v>1232715.471222189</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18097,7 +17347,7 @@
         <v>1232715.471222189</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18130,7 +17380,7 @@
         <v>993485.9162221889</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -18163,7 +17413,7 @@
         <v>1359840.614222189</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -18196,7 +17446,7 @@
         <v>1061840.476222189</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -18229,7 +17479,7 @@
         <v>1061840.476222189</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18262,7 +17512,7 @@
         <v>768206.7822221889</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18295,7 +17545,7 @@
         <v>920713.4912221889</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18328,7 +17578,7 @@
         <v>704012.4620221889</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18361,7 +17611,7 @@
         <v>432549.6620221889</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18394,7 +17644,7 @@
         <v>590257.806022189</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18427,7 +17677,7 @@
         <v>154616.663022189</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18460,7 +17710,7 @@
         <v>419803.036022189</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18493,7 +17743,7 @@
         <v>285995.803022189</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18526,7 +17776,7 @@
         <v>-193836.863977811</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -18559,7 +17809,7 @@
         <v>-186630.255177811</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18592,7 +17842,7 @@
         <v>-193652.831477811</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18625,7 +17875,7 @@
         <v>-87568.728477811</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18658,7 +17908,7 @@
         <v>-87568.728477811</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18691,7 +17941,7 @@
         <v>-367252.106877811</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18724,7 +17974,7 @@
         <v>-236348.872877811</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18757,7 +18007,7 @@
         <v>-234817.345277811</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18790,7 +18040,7 @@
         <v>-430856.683277811</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18823,7 +18073,7 @@
         <v>-115591.141277811</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18856,7 +18106,7 @@
         <v>-115591.141277811</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18889,7 +18139,7 @@
         <v>-381743.542277811</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18922,7 +18172,7 @@
         <v>-622226.6692778111</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18955,7 +18205,7 @@
         <v>-500269.4502778111</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18988,7 +18238,7 @@
         <v>-639620.4062778112</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19021,7 +18271,7 @@
         <v>-494015.3742778111</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19054,7 +18304,7 @@
         <v>-738662.5182778111</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19087,7 +18337,7 @@
         <v>-743194.5182778111</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -19120,7 +18370,7 @@
         <v>-465399.1132778111</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -19153,7 +18403,7 @@
         <v>-765503.3292778111</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -19186,7 +18436,7 @@
         <v>-490408.2862778111</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19219,7 +18469,7 @@
         <v>-805174.3462778111</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -19252,7 +18502,7 @@
         <v>-805174.3462778111</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -19285,7 +18535,7 @@
         <v>-535513.3602778111</v>
       </c>
       <c r="H550" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -19318,7 +18568,7 @@
         <v>-278588.5742778111</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -19351,7 +18601,7 @@
         <v>-615598.5402778111</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -19384,7 +18634,7 @@
         <v>-728867.7702778111</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -19417,7 +18667,7 @@
         <v>-564024.8212778111</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -19450,7 +18700,7 @@
         <v>-711027.5222778111</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -19483,7 +18733,7 @@
         <v>-432498.2286778111</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -19516,7 +18766,7 @@
         <v>-679529.5456778111</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -19549,7 +18799,7 @@
         <v>-372131.1846778112</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -19582,7 +18832,7 @@
         <v>-372131.1846778112</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -19615,7 +18865,7 @@
         <v>-372131.1846778112</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19648,7 +18898,7 @@
         <v>-372131.1846778112</v>
       </c>
       <c r="H561" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -19681,7 +18931,7 @@
         <v>-580981.9986778111</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19714,7 +18964,7 @@
         <v>-400401.2626778111</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19747,7 +18997,7 @@
         <v>-432474.5640778111</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20308,7 +19558,7 @@
         <v>-750817.1898778111</v>
       </c>
       <c r="H581" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -22024,7 +21274,7 @@
         <v>-1612878.338677811</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22486,7 +21736,7 @@
         <v>-1967678.575377811</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22618,7 +21868,7 @@
         <v>-1982920.158377812</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -25291,7 +24541,7 @@
         <v>-2981030.367277813</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -25390,7 +24640,7 @@
         <v>-2654094.992277813</v>
       </c>
       <c r="H735" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -27172,7 +26422,7 @@
         <v>-2006655.388777813</v>
       </c>
       <c r="H789" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -27304,7 +26554,7 @@
         <v>-1883067.421777813</v>
       </c>
       <c r="H793" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -28162,7 +27412,7 @@
         <v>-1580523.899577813</v>
       </c>
       <c r="H819" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -28228,7 +27478,7 @@
         <v>-1794286.062577813</v>
       </c>
       <c r="H821" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
@@ -28261,7 +27511,7 @@
         <v>-1485125.509577813</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
@@ -28294,7 +27544,7 @@
         <v>-1485125.509577813</v>
       </c>
       <c r="H823" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
@@ -28327,7 +27577,7 @@
         <v>-1908954.691577813</v>
       </c>
       <c r="H824" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
@@ -28360,7 +27610,7 @@
         <v>-1627436.450577813</v>
       </c>
       <c r="H825" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
@@ -28393,7 +27643,7 @@
         <v>-1562361.566577813</v>
       </c>
       <c r="H826" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
@@ -28426,7 +27676,7 @@
         <v>-1809447.704577813</v>
       </c>
       <c r="H827" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
@@ -28459,7 +27709,7 @@
         <v>-1593711.685577813</v>
       </c>
       <c r="H828" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
@@ -28492,7 +27742,7 @@
         <v>-1593711.685577813</v>
       </c>
       <c r="H829" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
@@ -28525,7 +27775,7 @@
         <v>-1593711.685577813</v>
       </c>
       <c r="H830" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
@@ -28558,7 +27808,7 @@
         <v>-1593711.685577813</v>
       </c>
       <c r="H831" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
@@ -28591,7 +27841,7 @@
         <v>-1730225.129577813</v>
       </c>
       <c r="H832" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
@@ -28624,7 +27874,7 @@
         <v>-1433836.696577813</v>
       </c>
       <c r="H833" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
@@ -28657,7 +27907,7 @@
         <v>-1949101.039577812</v>
       </c>
       <c r="H834" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
@@ -28690,7 +27940,7 @@
         <v>-1949101.039577812</v>
       </c>
       <c r="H835" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
@@ -29086,7 +28336,7 @@
         <v>-1350198.014577812</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -29218,7 +28468,7 @@
         <v>-1586828.719577813</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -29317,7 +28567,7 @@
         <v>-1633127.163577813</v>
       </c>
       <c r="H854" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
@@ -29350,7 +28600,7 @@
         <v>-1343646.581577813</v>
       </c>
       <c r="H855" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -29416,7 +28666,7 @@
         <v>-1620631.935577813</v>
       </c>
       <c r="H857" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
@@ -29449,7 +28699,7 @@
         <v>-1394440.659577813</v>
       </c>
       <c r="H858" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -29647,7 +28897,7 @@
         <v>-1313828.033577813</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -29713,7 +28963,7 @@
         <v>-1395780.169577813</v>
       </c>
       <c r="H866" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -29779,7 +29029,7 @@
         <v>-1368301.125577813</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29812,7 +29062,7 @@
         <v>-1251572.680577813</v>
       </c>
       <c r="H869" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29944,7 +29194,7 @@
         <v>-1509841.213577813</v>
       </c>
       <c r="H873" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
@@ -30010,7 +29260,7 @@
         <v>-1357345.251577813</v>
       </c>
       <c r="H875" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
@@ -30043,7 +29293,7 @@
         <v>-1608446.074577813</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
@@ -30076,7 +29326,7 @@
         <v>-1608446.074577813</v>
       </c>
       <c r="H877" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
@@ -30109,7 +29359,7 @@
         <v>-1523553.613577813</v>
       </c>
       <c r="H878" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
@@ -30142,7 +29392,7 @@
         <v>-1956136.004577813</v>
       </c>
       <c r="H879" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
@@ -30175,7 +29425,7 @@
         <v>-2307966.242577813</v>
       </c>
       <c r="H880" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
@@ -30208,7 +29458,7 @@
         <v>-2307966.242577813</v>
       </c>
       <c r="H881" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
@@ -30241,7 +29491,7 @@
         <v>-2097925.243577813</v>
       </c>
       <c r="H882" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
@@ -30274,7 +29524,7 @@
         <v>-2339608.569577813</v>
       </c>
       <c r="H883" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
@@ -30340,7 +29590,7 @@
         <v>-2200671.255577813</v>
       </c>
       <c r="H885" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
@@ -30373,7 +29623,7 @@
         <v>-2200671.255577813</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
@@ -30406,7 +29656,7 @@
         <v>-2529507.254577813</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
@@ -30472,7 +29722,7 @@
         <v>-2510477.011577813</v>
       </c>
       <c r="H889" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
@@ -30505,7 +29755,7 @@
         <v>-2819238.518577813</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
@@ -30604,7 +29854,7 @@
         <v>-2903021.774577813</v>
       </c>
       <c r="H893" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
@@ -32947,10 +32197,14 @@
         <v>-3614359.001577813</v>
       </c>
       <c r="H964" t="n">
-        <v>0</v>
-      </c>
-      <c r="I964" t="inlineStr"/>
-      <c r="J964" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I964" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="J964" t="n">
+        <v>3.28</v>
+      </c>
       <c r="K964" t="inlineStr"/>
       <c r="L964" t="n">
         <v>1</v>
@@ -32980,11 +32234,19 @@
         <v>-3927028.500577813</v>
       </c>
       <c r="H965" t="n">
-        <v>0</v>
-      </c>
-      <c r="I965" t="inlineStr"/>
-      <c r="J965" t="inlineStr"/>
-      <c r="K965" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I965" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="J965" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K965" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L965" t="n">
         <v>1</v>
       </c>
@@ -33013,11 +32275,19 @@
         <v>-3677836.520577813</v>
       </c>
       <c r="H966" t="n">
-        <v>0</v>
-      </c>
-      <c r="I966" t="inlineStr"/>
-      <c r="J966" t="inlineStr"/>
-      <c r="K966" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I966" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="J966" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K966" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L966" t="n">
         <v>1</v>
       </c>
@@ -33049,8 +32319,14 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="inlineStr"/>
-      <c r="K967" t="inlineStr"/>
+      <c r="J967" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K967" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L967" t="n">
         <v>1</v>
       </c>
@@ -33079,11 +32355,19 @@
         <v>-3647430.996577813</v>
       </c>
       <c r="H968" t="n">
-        <v>0</v>
-      </c>
-      <c r="I968" t="inlineStr"/>
-      <c r="J968" t="inlineStr"/>
-      <c r="K968" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I968" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="J968" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K968" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L968" t="n">
         <v>1</v>
       </c>
@@ -33112,11 +32396,19 @@
         <v>-3183516.507577813</v>
       </c>
       <c r="H969" t="n">
-        <v>0</v>
-      </c>
-      <c r="I969" t="inlineStr"/>
-      <c r="J969" t="inlineStr"/>
-      <c r="K969" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I969" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J969" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K969" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L969" t="n">
         <v>1</v>
       </c>
@@ -33148,8 +32440,14 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="inlineStr"/>
-      <c r="K970" t="inlineStr"/>
+      <c r="J970" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K970" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L970" t="n">
         <v>1</v>
       </c>
@@ -33181,8 +32479,14 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="inlineStr"/>
-      <c r="K971" t="inlineStr"/>
+      <c r="J971" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K971" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L971" t="n">
         <v>1</v>
       </c>
@@ -33214,8 +32518,14 @@
         <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="inlineStr"/>
-      <c r="K972" t="inlineStr"/>
+      <c r="J972" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K972" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L972" t="n">
         <v>1</v>
       </c>
@@ -33247,8 +32557,14 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="inlineStr"/>
-      <c r="K973" t="inlineStr"/>
+      <c r="J973" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K973" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L973" t="n">
         <v>1</v>
       </c>
@@ -33280,8 +32596,14 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="inlineStr"/>
-      <c r="K974" t="inlineStr"/>
+      <c r="J974" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K974" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L974" t="n">
         <v>1</v>
       </c>
@@ -33313,8 +32635,14 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="inlineStr"/>
-      <c r="K975" t="inlineStr"/>
+      <c r="J975" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K975" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L975" t="n">
         <v>1</v>
       </c>
@@ -33346,8 +32674,14 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="inlineStr"/>
-      <c r="K976" t="inlineStr"/>
+      <c r="J976" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K976" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L976" t="n">
         <v>1</v>
       </c>
@@ -33379,8 +32713,14 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="inlineStr"/>
-      <c r="K977" t="inlineStr"/>
+      <c r="J977" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K977" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L977" t="n">
         <v>1</v>
       </c>
@@ -33412,8 +32752,14 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="inlineStr"/>
-      <c r="K978" t="inlineStr"/>
+      <c r="J978" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K978" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L978" t="n">
         <v>1</v>
       </c>
@@ -33445,8 +32791,14 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="inlineStr"/>
-      <c r="K979" t="inlineStr"/>
+      <c r="J979" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K979" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L979" t="n">
         <v>1</v>
       </c>
@@ -33478,8 +32830,14 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="inlineStr"/>
-      <c r="K980" t="inlineStr"/>
+      <c r="J980" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K980" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L980" t="n">
         <v>1</v>
       </c>
@@ -33511,8 +32869,14 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="inlineStr"/>
-      <c r="K981" t="inlineStr"/>
+      <c r="J981" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K981" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L981" t="n">
         <v>1</v>
       </c>
@@ -33544,8 +32908,14 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="inlineStr"/>
-      <c r="K982" t="inlineStr"/>
+      <c r="J982" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K982" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L982" t="n">
         <v>1</v>
       </c>
@@ -33577,8 +32947,14 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="inlineStr"/>
-      <c r="K983" t="inlineStr"/>
+      <c r="J983" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K983" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L983" t="n">
         <v>1</v>
       </c>
@@ -33607,11 +32983,19 @@
         <v>-3538166.640577813</v>
       </c>
       <c r="H984" t="n">
-        <v>0</v>
-      </c>
-      <c r="I984" t="inlineStr"/>
-      <c r="J984" t="inlineStr"/>
-      <c r="K984" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I984" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J984" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K984" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L984" t="n">
         <v>1</v>
       </c>
@@ -33640,11 +33024,19 @@
         <v>-3803707.229577813</v>
       </c>
       <c r="H985" t="n">
-        <v>0</v>
-      </c>
-      <c r="I985" t="inlineStr"/>
-      <c r="J985" t="inlineStr"/>
-      <c r="K985" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I985" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="J985" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K985" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L985" t="n">
         <v>1</v>
       </c>
@@ -33673,11 +33065,19 @@
         <v>-3803707.229577813</v>
       </c>
       <c r="H986" t="n">
-        <v>0</v>
-      </c>
-      <c r="I986" t="inlineStr"/>
-      <c r="J986" t="inlineStr"/>
-      <c r="K986" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I986" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J986" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K986" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L986" t="n">
         <v>1</v>
       </c>
@@ -33706,11 +33106,19 @@
         <v>-4116553.345577813</v>
       </c>
       <c r="H987" t="n">
-        <v>0</v>
-      </c>
-      <c r="I987" t="inlineStr"/>
-      <c r="J987" t="inlineStr"/>
-      <c r="K987" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I987" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J987" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K987" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L987" t="n">
         <v>1</v>
       </c>
@@ -33739,11 +33147,19 @@
         <v>-4116553.345577813</v>
       </c>
       <c r="H988" t="n">
-        <v>0</v>
-      </c>
-      <c r="I988" t="inlineStr"/>
-      <c r="J988" t="inlineStr"/>
-      <c r="K988" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I988" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="J988" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K988" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L988" t="n">
         <v>1</v>
       </c>
@@ -33772,11 +33188,19 @@
         <v>-3857013.884577813</v>
       </c>
       <c r="H989" t="n">
-        <v>0</v>
-      </c>
-      <c r="I989" t="inlineStr"/>
-      <c r="J989" t="inlineStr"/>
-      <c r="K989" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I989" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="J989" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K989" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L989" t="n">
         <v>1</v>
       </c>
@@ -33805,11 +33229,19 @@
         <v>-4185901.640577813</v>
       </c>
       <c r="H990" t="n">
-        <v>0</v>
-      </c>
-      <c r="I990" t="inlineStr"/>
-      <c r="J990" t="inlineStr"/>
-      <c r="K990" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I990" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="J990" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K990" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L990" t="n">
         <v>1</v>
       </c>
@@ -33838,11 +33270,19 @@
         <v>-4057313.664577813</v>
       </c>
       <c r="H991" t="n">
-        <v>0</v>
-      </c>
-      <c r="I991" t="inlineStr"/>
-      <c r="J991" t="inlineStr"/>
-      <c r="K991" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I991" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="J991" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K991" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L991" t="n">
         <v>1</v>
       </c>
@@ -33871,11 +33311,19 @@
         <v>-4403549.843577813</v>
       </c>
       <c r="H992" t="n">
-        <v>0</v>
-      </c>
-      <c r="I992" t="inlineStr"/>
-      <c r="J992" t="inlineStr"/>
-      <c r="K992" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I992" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="J992" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K992" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L992" t="n">
         <v>1</v>
       </c>
@@ -33904,11 +33352,19 @@
         <v>-4085153.325577813</v>
       </c>
       <c r="H993" t="n">
-        <v>0</v>
-      </c>
-      <c r="I993" t="inlineStr"/>
-      <c r="J993" t="inlineStr"/>
-      <c r="K993" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I993" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="J993" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K993" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L993" t="n">
         <v>1</v>
       </c>
@@ -33937,11 +33393,19 @@
         <v>-4085153.325577813</v>
       </c>
       <c r="H994" t="n">
-        <v>0</v>
-      </c>
-      <c r="I994" t="inlineStr"/>
-      <c r="J994" t="inlineStr"/>
-      <c r="K994" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I994" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="J994" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K994" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L994" t="n">
         <v>1</v>
       </c>
@@ -33970,11 +33434,19 @@
         <v>-4085153.325577813</v>
       </c>
       <c r="H995" t="n">
-        <v>0</v>
-      </c>
-      <c r="I995" t="inlineStr"/>
-      <c r="J995" t="inlineStr"/>
-      <c r="K995" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I995" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="J995" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K995" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L995" t="n">
         <v>1</v>
       </c>
@@ -34003,11 +33475,19 @@
         <v>-4085153.325577813</v>
       </c>
       <c r="H996" t="n">
-        <v>0</v>
-      </c>
-      <c r="I996" t="inlineStr"/>
-      <c r="J996" t="inlineStr"/>
-      <c r="K996" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I996" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="J996" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K996" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L996" t="n">
         <v>1</v>
       </c>
@@ -34036,11 +33516,19 @@
         <v>-3757748.409577813</v>
       </c>
       <c r="H997" t="n">
-        <v>0</v>
-      </c>
-      <c r="I997" t="inlineStr"/>
-      <c r="J997" t="inlineStr"/>
-      <c r="K997" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I997" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="J997" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K997" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L997" t="n">
         <v>1</v>
       </c>
@@ -34069,11 +33557,19 @@
         <v>-4078726.134577813</v>
       </c>
       <c r="H998" t="n">
-        <v>0</v>
-      </c>
-      <c r="I998" t="inlineStr"/>
-      <c r="J998" t="inlineStr"/>
-      <c r="K998" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I998" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="J998" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K998" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L998" t="n">
         <v>1</v>
       </c>
@@ -34102,11 +33598,19 @@
         <v>-4078726.134577813</v>
       </c>
       <c r="H999" t="n">
-        <v>0</v>
-      </c>
-      <c r="I999" t="inlineStr"/>
-      <c r="J999" t="inlineStr"/>
-      <c r="K999" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I999" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="J999" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K999" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L999" t="n">
         <v>1</v>
       </c>
@@ -34135,11 +33639,19 @@
         <v>-4078726.134577813</v>
       </c>
       <c r="H1000" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1000" t="inlineStr"/>
-      <c r="J1000" t="inlineStr"/>
-      <c r="K1000" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="J1000" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1000" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1000" t="n">
         <v>1</v>
       </c>
@@ -34168,11 +33680,19 @@
         <v>-4078726.134577813</v>
       </c>
       <c r="H1001" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1001" t="inlineStr"/>
-      <c r="J1001" t="inlineStr"/>
-      <c r="K1001" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1001" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1001" t="n">
         <v>1</v>
       </c>
@@ -34201,11 +33721,19 @@
         <v>-3795900.256577813</v>
       </c>
       <c r="H1002" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1002" t="inlineStr"/>
-      <c r="J1002" t="inlineStr"/>
-      <c r="K1002" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1002" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1002" t="n">
         <v>1</v>
       </c>
@@ -34234,11 +33762,19 @@
         <v>-4034292.060577813</v>
       </c>
       <c r="H1003" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1003" t="inlineStr"/>
-      <c r="J1003" t="inlineStr"/>
-      <c r="K1003" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1003" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1003" t="n">
         <v>1</v>
       </c>
@@ -34267,11 +33803,19 @@
         <v>-3750313.671577813</v>
       </c>
       <c r="H1004" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1004" t="inlineStr"/>
-      <c r="J1004" t="inlineStr"/>
-      <c r="K1004" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1004" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1004" t="n">
         <v>1</v>
       </c>
@@ -34300,11 +33844,19 @@
         <v>-3750313.671577813</v>
       </c>
       <c r="H1005" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1005" t="inlineStr"/>
-      <c r="J1005" t="inlineStr"/>
-      <c r="K1005" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1005" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1005" t="n">
         <v>1</v>
       </c>
@@ -34333,11 +33885,19 @@
         <v>-3750313.671577813</v>
       </c>
       <c r="H1006" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1006" t="inlineStr"/>
-      <c r="J1006" t="inlineStr"/>
-      <c r="K1006" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1006" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1006" t="n">
         <v>1</v>
       </c>
@@ -34366,11 +33926,19 @@
         <v>-3730383.671577813</v>
       </c>
       <c r="H1007" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1007" t="inlineStr"/>
-      <c r="J1007" t="inlineStr"/>
-      <c r="K1007" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1007" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1007" t="n">
         <v>1</v>
       </c>
@@ -34399,11 +33967,19 @@
         <v>-3730383.671577813</v>
       </c>
       <c r="H1008" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1008" t="inlineStr"/>
-      <c r="J1008" t="inlineStr"/>
-      <c r="K1008" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1008" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1008" t="n">
         <v>1</v>
       </c>
@@ -34435,8 +34011,14 @@
         <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="inlineStr"/>
-      <c r="K1009" t="inlineStr"/>
+      <c r="J1009" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1009" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1009" t="n">
         <v>1</v>
       </c>
@@ -34468,8 +34050,14 @@
         <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="inlineStr"/>
-      <c r="K1010" t="inlineStr"/>
+      <c r="J1010" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1010" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1010" t="n">
         <v>1</v>
       </c>
@@ -34501,8 +34089,14 @@
         <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="inlineStr"/>
-      <c r="K1011" t="inlineStr"/>
+      <c r="J1011" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1011" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1011" t="n">
         <v>1</v>
       </c>
@@ -34534,8 +34128,14 @@
         <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="inlineStr"/>
-      <c r="K1012" t="inlineStr"/>
+      <c r="J1012" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1012" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1012" t="n">
         <v>1</v>
       </c>
@@ -34567,8 +34167,14 @@
         <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="inlineStr"/>
-      <c r="K1013" t="inlineStr"/>
+      <c r="J1013" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1013" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1013" t="n">
         <v>1</v>
       </c>
@@ -34600,8 +34206,14 @@
         <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="inlineStr"/>
-      <c r="K1014" t="inlineStr"/>
+      <c r="J1014" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1014" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1014" t="n">
         <v>1</v>
       </c>
@@ -34633,8 +34245,14 @@
         <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="inlineStr"/>
-      <c r="K1015" t="inlineStr"/>
+      <c r="J1015" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1015" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1015" t="n">
         <v>1</v>
       </c>
@@ -34666,8 +34284,14 @@
         <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="inlineStr"/>
-      <c r="K1016" t="inlineStr"/>
+      <c r="J1016" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1016" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1016" t="n">
         <v>1</v>
       </c>
@@ -34699,8 +34323,14 @@
         <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="inlineStr"/>
-      <c r="K1017" t="inlineStr"/>
+      <c r="J1017" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1017" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1017" t="n">
         <v>1</v>
       </c>
@@ -34732,8 +34362,14 @@
         <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="inlineStr"/>
-      <c r="K1018" t="inlineStr"/>
+      <c r="J1018" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1018" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1018" t="n">
         <v>1</v>
       </c>
@@ -34765,8 +34401,14 @@
         <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="inlineStr"/>
-      <c r="K1019" t="inlineStr"/>
+      <c r="J1019" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1019" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1019" t="n">
         <v>1</v>
       </c>
@@ -34798,8 +34440,14 @@
         <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="inlineStr"/>
-      <c r="K1020" t="inlineStr"/>
+      <c r="J1020" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1020" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1020" t="n">
         <v>1</v>
       </c>
@@ -34831,8 +34479,14 @@
         <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="inlineStr"/>
-      <c r="K1021" t="inlineStr"/>
+      <c r="J1021" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1021" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1021" t="n">
         <v>1</v>
       </c>
@@ -34864,8 +34518,14 @@
         <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="inlineStr"/>
-      <c r="K1022" t="inlineStr"/>
+      <c r="J1022" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1022" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1022" t="n">
         <v>1</v>
       </c>
@@ -34897,8 +34557,14 @@
         <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="inlineStr"/>
-      <c r="K1023" t="inlineStr"/>
+      <c r="J1023" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1023" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1023" t="n">
         <v>1</v>
       </c>
@@ -34930,8 +34596,14 @@
         <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="inlineStr"/>
-      <c r="K1024" t="inlineStr"/>
+      <c r="J1024" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1024" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1024" t="n">
         <v>1</v>
       </c>
@@ -34963,8 +34635,14 @@
         <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="inlineStr"/>
-      <c r="K1025" t="inlineStr"/>
+      <c r="J1025" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1025" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1025" t="n">
         <v>1</v>
       </c>
@@ -34996,8 +34674,14 @@
         <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="inlineStr"/>
-      <c r="K1026" t="inlineStr"/>
+      <c r="J1026" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1026" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1026" t="n">
         <v>1</v>
       </c>
@@ -35029,8 +34713,14 @@
         <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="inlineStr"/>
-      <c r="K1027" t="inlineStr"/>
+      <c r="J1027" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1027" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1027" t="n">
         <v>1</v>
       </c>
@@ -35062,8 +34752,14 @@
         <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="inlineStr"/>
-      <c r="K1028" t="inlineStr"/>
+      <c r="J1028" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1028" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1028" t="n">
         <v>1</v>
       </c>
@@ -35095,8 +34791,14 @@
         <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="inlineStr"/>
-      <c r="K1029" t="inlineStr"/>
+      <c r="J1029" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1029" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1029" t="n">
         <v>1</v>
       </c>
@@ -35128,8 +34830,14 @@
         <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="inlineStr"/>
-      <c r="K1030" t="inlineStr"/>
+      <c r="J1030" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1030" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1030" t="n">
         <v>1</v>
       </c>
@@ -35161,8 +34869,14 @@
         <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="inlineStr"/>
-      <c r="K1031" t="inlineStr"/>
+      <c r="J1031" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1031" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1031" t="n">
         <v>1</v>
       </c>
@@ -35194,8 +34908,14 @@
         <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="inlineStr"/>
-      <c r="K1032" t="inlineStr"/>
+      <c r="J1032" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1032" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1032" t="n">
         <v>1</v>
       </c>
@@ -35227,8 +34947,14 @@
         <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="inlineStr"/>
-      <c r="K1033" t="inlineStr"/>
+      <c r="J1033" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1033" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1033" t="n">
         <v>1</v>
       </c>
@@ -35260,8 +34986,14 @@
         <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="inlineStr"/>
-      <c r="K1034" t="inlineStr"/>
+      <c r="J1034" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1034" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1034" t="n">
         <v>1</v>
       </c>
@@ -35293,8 +35025,14 @@
         <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="inlineStr"/>
-      <c r="K1035" t="inlineStr"/>
+      <c r="J1035" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1035" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1035" t="n">
         <v>1</v>
       </c>
@@ -35326,8 +35064,14 @@
         <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="inlineStr"/>
-      <c r="K1036" t="inlineStr"/>
+      <c r="J1036" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1036" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1036" t="n">
         <v>1</v>
       </c>
@@ -35359,8 +35103,14 @@
         <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="inlineStr"/>
-      <c r="K1037" t="inlineStr"/>
+      <c r="J1037" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1037" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1037" t="n">
         <v>1</v>
       </c>
@@ -35392,8 +35142,14 @@
         <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="inlineStr"/>
-      <c r="K1038" t="inlineStr"/>
+      <c r="J1038" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1038" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1038" t="n">
         <v>1</v>
       </c>
@@ -35425,8 +35181,14 @@
         <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="inlineStr"/>
-      <c r="K1039" t="inlineStr"/>
+      <c r="J1039" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1039" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1039" t="n">
         <v>1</v>
       </c>
@@ -35458,8 +35220,14 @@
         <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="inlineStr"/>
-      <c r="K1040" t="inlineStr"/>
+      <c r="J1040" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1040" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1040" t="n">
         <v>1</v>
       </c>
@@ -35491,8 +35259,14 @@
         <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="inlineStr"/>
-      <c r="K1041" t="inlineStr"/>
+      <c r="J1041" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1041" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1041" t="n">
         <v>1</v>
       </c>
@@ -35524,8 +35298,14 @@
         <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="inlineStr"/>
-      <c r="K1042" t="inlineStr"/>
+      <c r="J1042" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1042" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1042" t="n">
         <v>1</v>
       </c>
@@ -35554,13 +35334,19 @@
         <v>-4019084.502377814</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="inlineStr"/>
-      <c r="K1043" t="inlineStr"/>
+      <c r="J1043" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="K1043" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L1043" t="n">
-        <v>1</v>
+        <v>0.9797560975609757</v>
       </c>
       <c r="M1043" t="inlineStr"/>
     </row>
@@ -35620,7 +35406,7 @@
         <v>-3450586.829377814</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -35653,7 +35439,7 @@
         <v>-3450586.829377814</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -35686,7 +35472,7 @@
         <v>-3819191.619177814</v>
       </c>
       <c r="H1047" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
@@ -35884,7 +35670,7 @@
         <v>-3546858.924177814</v>
       </c>
       <c r="H1053" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
@@ -35917,7 +35703,7 @@
         <v>-3546858.924177814</v>
       </c>
       <c r="H1054" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
@@ -35950,7 +35736,7 @@
         <v>-3191400.474177814</v>
       </c>
       <c r="H1055" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
@@ -35983,7 +35769,7 @@
         <v>-3190247.566277814</v>
       </c>
       <c r="H1056" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
@@ -36016,7 +35802,7 @@
         <v>-3247780.566277814</v>
       </c>
       <c r="H1057" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
@@ -36049,7 +35835,7 @@
         <v>-3097226.575477814</v>
       </c>
       <c r="H1058" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
@@ -36082,7 +35868,7 @@
         <v>-3415165.977477814</v>
       </c>
       <c r="H1059" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
@@ -36115,7 +35901,7 @@
         <v>-3415165.977477814</v>
       </c>
       <c r="H1060" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
@@ -36148,7 +35934,7 @@
         <v>-3389822.977477814</v>
       </c>
       <c r="H1061" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
@@ -36181,7 +35967,7 @@
         <v>-3389822.977477814</v>
       </c>
       <c r="H1062" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
@@ -36214,7 +36000,7 @@
         <v>-3509029.561477814</v>
       </c>
       <c r="H1063" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
@@ -36247,7 +36033,7 @@
         <v>-3509029.561477814</v>
       </c>
       <c r="H1064" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -36280,7 +36066,7 @@
         <v>-3509029.561477814</v>
       </c>
       <c r="H1065" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -36313,7 +36099,7 @@
         <v>-3509029.561477814</v>
       </c>
       <c r="H1066" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -36346,7 +36132,7 @@
         <v>-3509029.561477814</v>
       </c>
       <c r="H1067" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -36357,6 +36143,6 @@
       <c r="M1067" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-25 BackTest DAC.xlsx
+++ b/BackTest/2019-10-25 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4642,7 +4642,7 @@
         <v>918832.6192999997</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>918832.6192999997</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>1227028.9533</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>994638.4542999996</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>994638.4542999996</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>994638.4542999996</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>1475161.5939</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>1160445.503899999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>1160445.503899999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>1438567.3069</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>1526875.0829</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>1309172.6699</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>1309172.6699</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>1309172.6699</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>1602295.9489</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>1336845.7809</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>1558150.7009</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>1558150.7009</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>1558150.7009</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>1305143.9339</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>1305143.9339</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>1305143.9339</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>1683161.7629</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>1082360.5549</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>1358679.9609</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>1043757.0639</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>1467758.3029</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>1764799.9479</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>1764799.9479</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>1764799.9479</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>1498479.9349</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>1138219.9619</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>1257234.5819</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>972620.3308999997</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>972620.3308999997</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>1297237.7099</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>1439832.9069</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>1533416.3836</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>1659560.0606</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>1392984.153599999</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>1134423.981599999</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>821625.1185999993</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>821625.1185999993</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>1041625.118599999</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-700175.0399000006</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-402870.2589000005</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-402870.2589000005</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-402870.2589000005</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-402870.2589000005</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-402870.2589000005</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-402870.2589000005</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-402870.2589000005</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-694969.8977778121</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-379937.7277778121</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-735252.1167778121</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-1070627.501777812</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-1338526.383477812</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-1082683.145477812</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-1420689.679977812</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-1158186.431977812</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-1436407.895977812</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-1138881.803977812</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-1477730.057977812</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-1205115.748977812</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-1469988.917977812</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-1178207.722977812</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-1178207.722977812</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-1553913.748977812</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-1299844.607977812</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-1046876.996977812</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-1349368.186977812</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-1077690.616977812</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-1077690.616977812</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-771270.1859778118</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-1065726.287977812</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-1065726.287977812</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-1065726.287977812</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-1065726.287977812</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-578552.9729778119</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-1071542.200977812</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-775532.6279778121</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-527271.9689778121</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-527271.9689778121</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-527271.9689778121</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-527271.9689778121</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-834890.6959778122</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-556076.3679778122</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-717625.6319778122</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-1050719.617977812</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-790723.8569778122</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-485690.9329778122</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-485690.9329778122</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-485690.9329778122</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-485690.9329778122</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-657512.0159778122</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-441854.5199778122</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-441854.5199778122</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-612484.3619778121</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-298631.9579778122</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-535433.0039778121</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-535433.0039778121</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-238776.1869778121</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-370799.4359778122</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-710573.9289778122</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-446145.5709778122</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-779161.8259778122</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-1029809.235977812</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-811983.0809778122</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-811983.0809778122</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-811983.0809778122</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-708932.0169778122</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-708932.0169778122</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-983953.5609778122</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-983953.5609778122</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-722146.2639778121</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>-979303.1469778122</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-979303.1469778122</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-1415964.993177812</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-1024931.567177812</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-710609.791177812</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-991047.458177812</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-737372.5031778121</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-933031.7311778121</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-933031.7311778121</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-933031.7311778121</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-1006135.632177812</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>162626.4547221887</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>42486.4328221887</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>163636.1061221887</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-19265.72687781134</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-306098.0288778114</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-143666.4658778114</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-195419.5458778114</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>-49883.54787781139</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13783,7 +13783,7 @@
         <v>122566.8251221886</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13816,7 +13816,7 @@
         <v>-47338.78727781141</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -13849,7 +13849,7 @@
         <v>214646.8337221886</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -13882,7 +13882,7 @@
         <v>565722.6410221886</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>298645.2030221886</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -13948,7 +13948,7 @@
         <v>582457.2670221885</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -13981,7 +13981,7 @@
         <v>582457.2670221885</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -14014,7 +14014,7 @@
         <v>451668.7250221885</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -14047,7 +14047,7 @@
         <v>728297.5540221885</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -14080,7 +14080,7 @@
         <v>406594.8800221885</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14113,7 +14113,7 @@
         <v>651539.6660221885</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14146,7 +14146,7 @@
         <v>345866.2800221885</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14179,7 +14179,7 @@
         <v>539999.4250221885</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14245,7 +14245,7 @@
         <v>247713.5150221885</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14278,7 +14278,7 @@
         <v>380004.4410221885</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14311,7 +14311,7 @@
         <v>199274.8030221885</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14443,7 +14443,7 @@
         <v>1061184.746022189</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14509,7 +14509,7 @@
         <v>1249900.488022189</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -14575,7 +14575,7 @@
         <v>747890.0730221886</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -14641,7 +14641,7 @@
         <v>747890.0730221886</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -14674,7 +14674,7 @@
         <v>988733.0413221887</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -14707,7 +14707,7 @@
         <v>988733.0413221887</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -14740,7 +14740,7 @@
         <v>839554.1383221888</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -14839,7 +14839,7 @@
         <v>1386375.217022188</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -14905,7 +14905,7 @@
         <v>988580.0840221886</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -14938,7 +14938,7 @@
         <v>988580.0840221886</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -14971,7 +14971,7 @@
         <v>988580.0840221886</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15004,7 +15004,7 @@
         <v>1106066.872022189</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15037,7 +15037,7 @@
         <v>839660.9920221885</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -15070,7 +15070,7 @@
         <v>856134.9920221885</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -15103,7 +15103,7 @@
         <v>846283.9920221885</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -15202,7 +15202,7 @@
         <v>1469945.369722188</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15235,7 +15235,7 @@
         <v>1501330.595722188</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15268,7 +15268,7 @@
         <v>1501330.595722188</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15400,7 +15400,7 @@
         <v>1242136.504622189</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -15433,7 +15433,7 @@
         <v>795443.0436221886</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -15499,7 +15499,7 @@
         <v>442500.0914221886</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -15565,7 +15565,7 @@
         <v>825964.8284221888</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -15598,7 +15598,7 @@
         <v>825964.8284221888</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -15631,7 +15631,7 @@
         <v>814690.6768221888</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -15664,7 +15664,7 @@
         <v>1404715.980822189</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -15697,7 +15697,7 @@
         <v>1204764.138822189</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -15730,7 +15730,7 @@
         <v>1204764.138822189</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -15763,7 +15763,7 @@
         <v>1543911.319322189</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -15796,7 +15796,7 @@
         <v>875668.5893221889</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -15829,7 +15829,7 @@
         <v>1003003.275322189</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -15862,7 +15862,7 @@
         <v>1011935.163322189</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -15895,7 +15895,7 @@
         <v>1011935.163322189</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -15928,7 +15928,7 @@
         <v>863157.1833221889</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -15961,7 +15961,7 @@
         <v>863157.1833221889</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -15994,7 +15994,7 @@
         <v>1051321.546322189</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -16027,7 +16027,7 @@
         <v>1031124.546322189</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -16060,7 +16060,7 @@
         <v>1148447.149322189</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16093,7 +16093,7 @@
         <v>993215.1953221889</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16126,7 +16126,7 @@
         <v>1113744.667322189</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -16159,7 +16159,7 @@
         <v>1123933.667322189</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -16192,7 +16192,7 @@
         <v>799370.0132221889</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -16225,7 +16225,7 @@
         <v>1091596.490222189</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -16258,7 +16258,7 @@
         <v>1091596.490222189</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -16291,7 +16291,7 @@
         <v>810479.1022221888</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -16324,7 +16324,7 @@
         <v>810479.1022221888</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -16357,7 +16357,7 @@
         <v>500416.5642221888</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -16390,7 +16390,7 @@
         <v>190046.9242221888</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -16423,7 +16423,7 @@
         <v>319836.2952221888</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -16456,7 +16456,7 @@
         <v>566020.3512221888</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -16489,7 +16489,7 @@
         <v>279797.1102221888</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16522,7 +16522,7 @@
         <v>508732.6982221888</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -16555,7 +16555,7 @@
         <v>178452.0262221888</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -16588,7 +16588,7 @@
         <v>178452.0262221888</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -16621,7 +16621,7 @@
         <v>204177.0262221888</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -16654,7 +16654,7 @@
         <v>182245.0262221888</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -16687,7 +16687,7 @@
         <v>518458.6542221888</v>
       </c>
       <c r="H494" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -16720,7 +16720,7 @@
         <v>709124.7172221888</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -16753,7 +16753,7 @@
         <v>534770.2662221888</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -16786,7 +16786,7 @@
         <v>534770.2662221888</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -16819,7 +16819,7 @@
         <v>534770.2662221888</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -16852,7 +16852,7 @@
         <v>663591.5102221889</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -16885,7 +16885,7 @@
         <v>389463.4502221889</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -16918,7 +16918,7 @@
         <v>389463.4502221889</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -16951,7 +16951,7 @@
         <v>687235.9502221888</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -16984,7 +16984,7 @@
         <v>435617.7972221888</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17017,7 +17017,7 @@
         <v>729662.3342221889</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17050,7 +17050,7 @@
         <v>467984.9582221889</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17083,7 +17083,7 @@
         <v>194263.5682221889</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17116,7 +17116,7 @@
         <v>438563.5312221889</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -17149,7 +17149,7 @@
         <v>611346.3612221889</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17182,7 +17182,7 @@
         <v>866242.2192221889</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -17215,7 +17215,7 @@
         <v>866242.2192221889</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -17248,7 +17248,7 @@
         <v>1163998.633222189</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -17281,7 +17281,7 @@
         <v>1451027.924222189</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17314,7 +17314,7 @@
         <v>1232715.471222189</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17347,7 +17347,7 @@
         <v>1232715.471222189</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17380,7 +17380,7 @@
         <v>993485.9162221889</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17413,7 +17413,7 @@
         <v>1359840.614222189</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17446,7 +17446,7 @@
         <v>1061840.476222189</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17479,7 +17479,7 @@
         <v>1061840.476222189</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17512,7 +17512,7 @@
         <v>768206.7822221889</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -17545,7 +17545,7 @@
         <v>920713.4912221889</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -17578,7 +17578,7 @@
         <v>704012.4620221889</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -17611,7 +17611,7 @@
         <v>432549.6620221889</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -17644,7 +17644,7 @@
         <v>590257.806022189</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -17677,7 +17677,7 @@
         <v>154616.663022189</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -17710,7 +17710,7 @@
         <v>419803.036022189</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -17743,7 +17743,7 @@
         <v>285995.803022189</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-193836.863977811</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-186630.255177811</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-193652.831477811</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-87568.728477811</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-87568.728477811</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-367252.106877811</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-236348.872877811</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-234817.345277811</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-430856.683277811</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-115591.141277811</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-115591.141277811</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>-381743.542277811</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18172,7 +18172,7 @@
         <v>-622226.6692778111</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18205,7 +18205,7 @@
         <v>-500269.4502778111</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18238,7 +18238,7 @@
         <v>-639620.4062778112</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18271,7 +18271,7 @@
         <v>-494015.3742778111</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18304,7 +18304,7 @@
         <v>-738662.5182778111</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18337,7 +18337,7 @@
         <v>-743194.5182778111</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -18370,7 +18370,7 @@
         <v>-465399.1132778111</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -18403,7 +18403,7 @@
         <v>-765503.3292778111</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -18436,7 +18436,7 @@
         <v>-490408.2862778111</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -18469,7 +18469,7 @@
         <v>-805174.3462778111</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -18502,7 +18502,7 @@
         <v>-805174.3462778111</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -18535,7 +18535,7 @@
         <v>-535513.3602778111</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -18568,7 +18568,7 @@
         <v>-278588.5742778111</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -18601,7 +18601,7 @@
         <v>-615598.5402778111</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -18634,7 +18634,7 @@
         <v>-728867.7702778111</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -18667,7 +18667,7 @@
         <v>-564024.8212778111</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -18700,7 +18700,7 @@
         <v>-711027.5222778111</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18733,7 +18733,7 @@
         <v>-432498.2286778111</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -18766,7 +18766,7 @@
         <v>-679529.5456778111</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18799,7 +18799,7 @@
         <v>-372131.1846778112</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -18832,7 +18832,7 @@
         <v>-372131.1846778112</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18865,7 +18865,7 @@
         <v>-372131.1846778112</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18898,7 +18898,7 @@
         <v>-372131.1846778112</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18931,7 +18931,7 @@
         <v>-580981.9986778111</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -18964,7 +18964,7 @@
         <v>-400401.2626778111</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -18997,7 +18997,7 @@
         <v>-432474.5640778111</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -25795,10 +25795,14 @@
         <v>-2047137.777277813</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J770" t="n">
+        <v>3.18</v>
+      </c>
       <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
@@ -25828,11 +25832,19 @@
         <v>-2246139.551277813</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="J771" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -25861,11 +25873,19 @@
         <v>-2373897.717277813</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J772" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -25993,10 +26013,14 @@
         <v>-2209248.070277813</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="J776" t="n">
+        <v>3.22</v>
+      </c>
       <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
@@ -26026,11 +26050,19 @@
         <v>-1933494.559277813</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="J777" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26062,8 +26094,14 @@
         <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26125,11 +26163,17 @@
         <v>-2127727.523277813</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>3.21</v>
+      </c>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26162,7 +26206,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26195,7 +26243,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26228,7 +26280,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26261,7 +26317,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26294,7 +26354,11 @@
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26327,7 +26391,11 @@
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26356,11 +26424,17 @@
         <v>-2019490.529277813</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
-      </c>
-      <c r="I787" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I787" t="n">
+        <v>3.21</v>
+      </c>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26389,11 +26463,17 @@
         <v>-2008384.602877813</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
-      </c>
-      <c r="I788" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I788" t="n">
+        <v>3.22</v>
+      </c>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26426,7 +26506,11 @@
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26459,7 +26543,11 @@
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26492,7 +26580,11 @@
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26525,7 +26617,11 @@
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26558,7 +26654,11 @@
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26591,7 +26691,11 @@
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26624,7 +26728,11 @@
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26657,7 +26765,11 @@
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26690,7 +26802,11 @@
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -26723,7 +26839,11 @@
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -26756,7 +26876,11 @@
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -26789,7 +26913,11 @@
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -26822,7 +26950,11 @@
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -26855,7 +26987,11 @@
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -26888,7 +27024,11 @@
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
-      <c r="K803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -26921,7 +27061,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
-      <c r="K804" t="inlineStr"/>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L804" t="n">
         <v>1</v>
       </c>
@@ -26954,7 +27098,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
-      <c r="K805" t="inlineStr"/>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L805" t="n">
         <v>1</v>
       </c>
@@ -26987,7 +27135,11 @@
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
-      <c r="K806" t="inlineStr"/>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27020,7 +27172,11 @@
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
-      <c r="K807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L807" t="n">
         <v>1</v>
       </c>
@@ -27053,7 +27209,11 @@
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
-      <c r="K808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L808" t="n">
         <v>1</v>
       </c>
@@ -27086,7 +27246,11 @@
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27119,7 +27283,11 @@
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
-      <c r="K810" t="inlineStr"/>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L810" t="n">
         <v>1</v>
       </c>
@@ -27152,7 +27320,11 @@
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
-      <c r="K811" t="inlineStr"/>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L811" t="n">
         <v>1</v>
       </c>
@@ -27185,7 +27357,11 @@
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
-      <c r="K812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L812" t="n">
         <v>1</v>
       </c>
@@ -27218,7 +27394,11 @@
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
-      <c r="K813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L813" t="n">
         <v>1</v>
       </c>
@@ -27251,7 +27431,11 @@
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
-      <c r="K814" t="inlineStr"/>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L814" t="n">
         <v>1</v>
       </c>
@@ -27284,7 +27468,11 @@
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
-      <c r="K815" t="inlineStr"/>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L815" t="n">
         <v>1</v>
       </c>
@@ -27317,7 +27505,11 @@
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
-      <c r="K816" t="inlineStr"/>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L816" t="n">
         <v>1</v>
       </c>
@@ -27350,7 +27542,11 @@
       </c>
       <c r="I817" t="inlineStr"/>
       <c r="J817" t="inlineStr"/>
-      <c r="K817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L817" t="n">
         <v>1</v>
       </c>
@@ -27383,7 +27579,11 @@
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
-      <c r="K818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L818" t="n">
         <v>1</v>
       </c>
@@ -27416,7 +27616,11 @@
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
-      <c r="K819" t="inlineStr"/>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L819" t="n">
         <v>1</v>
       </c>
@@ -27449,7 +27653,11 @@
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
-      <c r="K820" t="inlineStr"/>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L820" t="n">
         <v>1</v>
       </c>
@@ -27482,7 +27690,11 @@
       </c>
       <c r="I821" t="inlineStr"/>
       <c r="J821" t="inlineStr"/>
-      <c r="K821" t="inlineStr"/>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L821" t="n">
         <v>1</v>
       </c>
@@ -27515,7 +27727,11 @@
       </c>
       <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27548,7 +27764,11 @@
       </c>
       <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27581,7 +27801,11 @@
       </c>
       <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27614,7 +27838,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27647,7 +27875,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27680,7 +27912,11 @@
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27713,7 +27949,11 @@
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27746,7 +27986,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27779,7 +28023,11 @@
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -27812,7 +28060,11 @@
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27845,7 +28097,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -27878,7 +28134,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -27911,7 +28171,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -27944,7 +28208,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -27977,7 +28245,11 @@
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L836" t="n">
         <v>1</v>
       </c>
@@ -28010,7 +28282,11 @@
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
-      <c r="K837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L837" t="n">
         <v>1</v>
       </c>
@@ -28043,7 +28319,11 @@
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
-      <c r="K838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L838" t="n">
         <v>1</v>
       </c>
@@ -28076,7 +28356,11 @@
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
-      <c r="K839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L839" t="n">
         <v>1</v>
       </c>
@@ -28109,7 +28393,11 @@
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
-      <c r="K840" t="inlineStr"/>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L840" t="n">
         <v>1</v>
       </c>
@@ -28142,7 +28430,11 @@
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
-      <c r="K841" t="inlineStr"/>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L841" t="n">
         <v>1</v>
       </c>
@@ -28175,7 +28467,11 @@
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
-      <c r="K842" t="inlineStr"/>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L842" t="n">
         <v>1</v>
       </c>
@@ -28208,7 +28504,11 @@
       </c>
       <c r="I843" t="inlineStr"/>
       <c r="J843" t="inlineStr"/>
-      <c r="K843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L843" t="n">
         <v>1</v>
       </c>
@@ -28241,7 +28541,11 @@
       </c>
       <c r="I844" t="inlineStr"/>
       <c r="J844" t="inlineStr"/>
-      <c r="K844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L844" t="n">
         <v>1</v>
       </c>
@@ -28274,7 +28578,11 @@
       </c>
       <c r="I845" t="inlineStr"/>
       <c r="J845" t="inlineStr"/>
-      <c r="K845" t="inlineStr"/>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L845" t="n">
         <v>1</v>
       </c>
@@ -28307,7 +28615,11 @@
       </c>
       <c r="I846" t="inlineStr"/>
       <c r="J846" t="inlineStr"/>
-      <c r="K846" t="inlineStr"/>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L846" t="n">
         <v>1</v>
       </c>
@@ -28336,11 +28648,15 @@
         <v>-1350198.014577812</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
-      <c r="K847" t="inlineStr"/>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L847" t="n">
         <v>1</v>
       </c>
@@ -28373,7 +28689,11 @@
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
-      <c r="K848" t="inlineStr"/>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28406,7 +28726,11 @@
       </c>
       <c r="I849" t="inlineStr"/>
       <c r="J849" t="inlineStr"/>
-      <c r="K849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -28439,7 +28763,11 @@
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
-      <c r="K850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L850" t="n">
         <v>1</v>
       </c>
@@ -28468,11 +28796,15 @@
         <v>-1586828.719577813</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
-      <c r="K851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L851" t="n">
         <v>1</v>
       </c>
@@ -28505,7 +28837,11 @@
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
-      <c r="K852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L852" t="n">
         <v>1</v>
       </c>
@@ -28538,7 +28874,11 @@
       </c>
       <c r="I853" t="inlineStr"/>
       <c r="J853" t="inlineStr"/>
-      <c r="K853" t="inlineStr"/>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L853" t="n">
         <v>1</v>
       </c>
@@ -28567,11 +28907,15 @@
         <v>-1633127.163577813</v>
       </c>
       <c r="H854" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
       <c r="J854" t="inlineStr"/>
-      <c r="K854" t="inlineStr"/>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L854" t="n">
         <v>1</v>
       </c>
@@ -28604,7 +28948,11 @@
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
-      <c r="K855" t="inlineStr"/>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L855" t="n">
         <v>1</v>
       </c>
@@ -28637,7 +28985,11 @@
       </c>
       <c r="I856" t="inlineStr"/>
       <c r="J856" t="inlineStr"/>
-      <c r="K856" t="inlineStr"/>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L856" t="n">
         <v>1</v>
       </c>
@@ -28666,11 +29018,15 @@
         <v>-1620631.935577813</v>
       </c>
       <c r="H857" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
       <c r="J857" t="inlineStr"/>
-      <c r="K857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L857" t="n">
         <v>1</v>
       </c>
@@ -28703,7 +29059,11 @@
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
-      <c r="K858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L858" t="n">
         <v>1</v>
       </c>
@@ -28736,7 +29096,11 @@
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
-      <c r="K859" t="inlineStr"/>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L859" t="n">
         <v>1</v>
       </c>
@@ -28769,7 +29133,11 @@
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
-      <c r="K860" t="inlineStr"/>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L860" t="n">
         <v>1</v>
       </c>
@@ -28802,7 +29170,11 @@
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
-      <c r="K861" t="inlineStr"/>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L861" t="n">
         <v>1</v>
       </c>
@@ -28835,7 +29207,11 @@
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
-      <c r="K862" t="inlineStr"/>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L862" t="n">
         <v>1</v>
       </c>
@@ -28868,7 +29244,11 @@
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
-      <c r="K863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L863" t="n">
         <v>1</v>
       </c>
@@ -28897,11 +29277,15 @@
         <v>-1313828.033577813</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
-      <c r="K864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L864" t="n">
         <v>1</v>
       </c>
@@ -28934,7 +29318,11 @@
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
-      <c r="K865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L865" t="n">
         <v>1</v>
       </c>
@@ -28963,11 +29351,15 @@
         <v>-1395780.169577813</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
-      <c r="K866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L866" t="n">
         <v>1</v>
       </c>
@@ -29000,7 +29392,11 @@
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
-      <c r="K867" t="inlineStr"/>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L867" t="n">
         <v>1</v>
       </c>
@@ -29029,11 +29425,15 @@
         <v>-1368301.125577813</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
-      <c r="K868" t="inlineStr"/>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L868" t="n">
         <v>1</v>
       </c>
@@ -29062,11 +29462,15 @@
         <v>-1251572.680577813</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
-      <c r="K869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L869" t="n">
         <v>1</v>
       </c>
@@ -29099,7 +29503,11 @@
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
-      <c r="K870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L870" t="n">
         <v>1</v>
       </c>
@@ -29132,7 +29540,11 @@
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
-      <c r="K871" t="inlineStr"/>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L871" t="n">
         <v>1</v>
       </c>
@@ -29165,7 +29577,11 @@
       </c>
       <c r="I872" t="inlineStr"/>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29194,11 +29610,15 @@
         <v>-1509841.213577813</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29231,7 +29651,11 @@
       </c>
       <c r="I874" t="inlineStr"/>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29260,11 +29684,15 @@
         <v>-1357345.251577813</v>
       </c>
       <c r="H875" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29293,11 +29721,15 @@
         <v>-1608446.074577813</v>
       </c>
       <c r="H876" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29326,11 +29758,15 @@
         <v>-1608446.074577813</v>
       </c>
       <c r="H877" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29359,11 +29795,15 @@
         <v>-1523553.613577813</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29392,11 +29832,15 @@
         <v>-1956136.004577813</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29425,11 +29869,15 @@
         <v>-2307966.242577813</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29458,11 +29906,15 @@
         <v>-2307966.242577813</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29491,11 +29943,15 @@
         <v>-2097925.243577813</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29524,11 +29980,15 @@
         <v>-2339608.569577813</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29561,7 +30021,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29590,11 +30054,15 @@
         <v>-2200671.255577813</v>
       </c>
       <c r="H885" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29623,11 +30091,15 @@
         <v>-2200671.255577813</v>
       </c>
       <c r="H886" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29656,11 +30128,15 @@
         <v>-2529507.254577813</v>
       </c>
       <c r="H887" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29693,7 +30169,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -29722,11 +30202,15 @@
         <v>-2510477.011577813</v>
       </c>
       <c r="H889" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -29755,11 +30239,15 @@
         <v>-2819238.518577813</v>
       </c>
       <c r="H890" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -29792,7 +30280,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -29825,7 +30317,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -29854,11 +30350,15 @@
         <v>-2903021.774577813</v>
       </c>
       <c r="H893" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -29891,7 +30391,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -29924,7 +30428,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -29957,7 +30465,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -29990,7 +30502,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30023,7 +30539,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30056,7 +30576,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30089,7 +30613,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30122,7 +30650,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30155,7 +30687,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30188,7 +30724,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30221,7 +30761,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30254,7 +30798,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30287,7 +30835,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30320,7 +30872,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30353,7 +30909,11 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30386,7 +30946,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30419,7 +30983,11 @@
       </c>
       <c r="I910" t="inlineStr"/>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30452,7 +31020,11 @@
       </c>
       <c r="I911" t="inlineStr"/>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30485,7 +31057,11 @@
       </c>
       <c r="I912" t="inlineStr"/>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -30518,7 +31094,11 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30551,7 +31131,11 @@
       </c>
       <c r="I914" t="inlineStr"/>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -30584,7 +31168,11 @@
       </c>
       <c r="I915" t="inlineStr"/>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -30617,7 +31205,11 @@
       </c>
       <c r="I916" t="inlineStr"/>
       <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -30650,7 +31242,11 @@
       </c>
       <c r="I917" t="inlineStr"/>
       <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr"/>
+      <c r="K917" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L917" t="n">
         <v>1</v>
       </c>
@@ -30683,7 +31279,11 @@
       </c>
       <c r="I918" t="inlineStr"/>
       <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr"/>
+      <c r="K918" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L918" t="n">
         <v>1</v>
       </c>
@@ -30716,7 +31316,11 @@
       </c>
       <c r="I919" t="inlineStr"/>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -30749,7 +31353,11 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -30782,7 +31390,11 @@
       </c>
       <c r="I921" t="inlineStr"/>
       <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr"/>
+      <c r="K921" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L921" t="n">
         <v>1</v>
       </c>
@@ -30815,7 +31427,11 @@
       </c>
       <c r="I922" t="inlineStr"/>
       <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr"/>
+      <c r="K922" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L922" t="n">
         <v>1</v>
       </c>
@@ -30848,7 +31464,11 @@
       </c>
       <c r="I923" t="inlineStr"/>
       <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr"/>
+      <c r="K923" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L923" t="n">
         <v>1</v>
       </c>
@@ -30881,7 +31501,11 @@
       </c>
       <c r="I924" t="inlineStr"/>
       <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr"/>
+      <c r="K924" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L924" t="n">
         <v>1</v>
       </c>
@@ -30914,7 +31538,11 @@
       </c>
       <c r="I925" t="inlineStr"/>
       <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr"/>
+      <c r="K925" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L925" t="n">
         <v>1</v>
       </c>
@@ -30947,7 +31575,11 @@
       </c>
       <c r="I926" t="inlineStr"/>
       <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr"/>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L926" t="n">
         <v>1</v>
       </c>
@@ -30980,7 +31612,11 @@
       </c>
       <c r="I927" t="inlineStr"/>
       <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr"/>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L927" t="n">
         <v>1</v>
       </c>
@@ -31013,7 +31649,11 @@
       </c>
       <c r="I928" t="inlineStr"/>
       <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr"/>
+      <c r="K928" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L928" t="n">
         <v>1</v>
       </c>
@@ -31046,7 +31686,11 @@
       </c>
       <c r="I929" t="inlineStr"/>
       <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr"/>
+      <c r="K929" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31079,7 +31723,11 @@
       </c>
       <c r="I930" t="inlineStr"/>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
+      <c r="K930" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L930" t="n">
         <v>1</v>
       </c>
@@ -31112,7 +31760,11 @@
       </c>
       <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
-      <c r="K931" t="inlineStr"/>
+      <c r="K931" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L931" t="n">
         <v>1</v>
       </c>
@@ -31145,7 +31797,11 @@
       </c>
       <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
-      <c r="K932" t="inlineStr"/>
+      <c r="K932" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L932" t="n">
         <v>1</v>
       </c>
@@ -31178,7 +31834,11 @@
       </c>
       <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
-      <c r="K933" t="inlineStr"/>
+      <c r="K933" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L933" t="n">
         <v>1</v>
       </c>
@@ -31211,7 +31871,11 @@
       </c>
       <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
-      <c r="K934" t="inlineStr"/>
+      <c r="K934" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L934" t="n">
         <v>1</v>
       </c>
@@ -31244,7 +31908,11 @@
       </c>
       <c r="I935" t="inlineStr"/>
       <c r="J935" t="inlineStr"/>
-      <c r="K935" t="inlineStr"/>
+      <c r="K935" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L935" t="n">
         <v>1</v>
       </c>
@@ -31277,7 +31945,11 @@
       </c>
       <c r="I936" t="inlineStr"/>
       <c r="J936" t="inlineStr"/>
-      <c r="K936" t="inlineStr"/>
+      <c r="K936" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L936" t="n">
         <v>1</v>
       </c>
@@ -31310,7 +31982,11 @@
       </c>
       <c r="I937" t="inlineStr"/>
       <c r="J937" t="inlineStr"/>
-      <c r="K937" t="inlineStr"/>
+      <c r="K937" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L937" t="n">
         <v>1</v>
       </c>
@@ -31343,7 +32019,11 @@
       </c>
       <c r="I938" t="inlineStr"/>
       <c r="J938" t="inlineStr"/>
-      <c r="K938" t="inlineStr"/>
+      <c r="K938" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L938" t="n">
         <v>1</v>
       </c>
@@ -31376,7 +32056,11 @@
       </c>
       <c r="I939" t="inlineStr"/>
       <c r="J939" t="inlineStr"/>
-      <c r="K939" t="inlineStr"/>
+      <c r="K939" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L939" t="n">
         <v>1</v>
       </c>
@@ -31409,7 +32093,11 @@
       </c>
       <c r="I940" t="inlineStr"/>
       <c r="J940" t="inlineStr"/>
-      <c r="K940" t="inlineStr"/>
+      <c r="K940" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L940" t="n">
         <v>1</v>
       </c>
@@ -31442,7 +32130,11 @@
       </c>
       <c r="I941" t="inlineStr"/>
       <c r="J941" t="inlineStr"/>
-      <c r="K941" t="inlineStr"/>
+      <c r="K941" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L941" t="n">
         <v>1</v>
       </c>
@@ -31475,7 +32167,11 @@
       </c>
       <c r="I942" t="inlineStr"/>
       <c r="J942" t="inlineStr"/>
-      <c r="K942" t="inlineStr"/>
+      <c r="K942" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L942" t="n">
         <v>1</v>
       </c>
@@ -31508,7 +32204,11 @@
       </c>
       <c r="I943" t="inlineStr"/>
       <c r="J943" t="inlineStr"/>
-      <c r="K943" t="inlineStr"/>
+      <c r="K943" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L943" t="n">
         <v>1</v>
       </c>
@@ -31541,7 +32241,11 @@
       </c>
       <c r="I944" t="inlineStr"/>
       <c r="J944" t="inlineStr"/>
-      <c r="K944" t="inlineStr"/>
+      <c r="K944" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L944" t="n">
         <v>1</v>
       </c>
@@ -31574,7 +32278,11 @@
       </c>
       <c r="I945" t="inlineStr"/>
       <c r="J945" t="inlineStr"/>
-      <c r="K945" t="inlineStr"/>
+      <c r="K945" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L945" t="n">
         <v>1</v>
       </c>
@@ -31607,7 +32315,11 @@
       </c>
       <c r="I946" t="inlineStr"/>
       <c r="J946" t="inlineStr"/>
-      <c r="K946" t="inlineStr"/>
+      <c r="K946" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L946" t="n">
         <v>1</v>
       </c>
@@ -31640,7 +32352,11 @@
       </c>
       <c r="I947" t="inlineStr"/>
       <c r="J947" t="inlineStr"/>
-      <c r="K947" t="inlineStr"/>
+      <c r="K947" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L947" t="n">
         <v>1</v>
       </c>
@@ -31669,11 +32385,17 @@
         <v>-2857624.344577813</v>
       </c>
       <c r="H948" t="n">
-        <v>0</v>
-      </c>
-      <c r="I948" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I948" t="n">
+        <v>3.28</v>
+      </c>
       <c r="J948" t="inlineStr"/>
-      <c r="K948" t="inlineStr"/>
+      <c r="K948" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L948" t="n">
         <v>1</v>
       </c>
@@ -31702,11 +32424,17 @@
         <v>-2857624.344577813</v>
       </c>
       <c r="H949" t="n">
-        <v>0</v>
-      </c>
-      <c r="I949" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I949" t="n">
+        <v>3.27</v>
+      </c>
       <c r="J949" t="inlineStr"/>
-      <c r="K949" t="inlineStr"/>
+      <c r="K949" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L949" t="n">
         <v>1</v>
       </c>
@@ -31735,11 +32463,17 @@
         <v>-3088454.501577813</v>
       </c>
       <c r="H950" t="n">
-        <v>0</v>
-      </c>
-      <c r="I950" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I950" t="n">
+        <v>3.27</v>
+      </c>
       <c r="J950" t="inlineStr"/>
-      <c r="K950" t="inlineStr"/>
+      <c r="K950" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L950" t="n">
         <v>1</v>
       </c>
@@ -31772,7 +32506,11 @@
       </c>
       <c r="I951" t="inlineStr"/>
       <c r="J951" t="inlineStr"/>
-      <c r="K951" t="inlineStr"/>
+      <c r="K951" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L951" t="n">
         <v>1</v>
       </c>
@@ -31801,11 +32539,17 @@
         <v>-2788600.204577813</v>
       </c>
       <c r="H952" t="n">
-        <v>0</v>
-      </c>
-      <c r="I952" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I952" t="n">
+        <v>3.26</v>
+      </c>
       <c r="J952" t="inlineStr"/>
-      <c r="K952" t="inlineStr"/>
+      <c r="K952" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L952" t="n">
         <v>1</v>
       </c>
@@ -31834,11 +32578,17 @@
         <v>-2788600.204577813</v>
       </c>
       <c r="H953" t="n">
-        <v>0</v>
-      </c>
-      <c r="I953" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I953" t="n">
+        <v>3.27</v>
+      </c>
       <c r="J953" t="inlineStr"/>
-      <c r="K953" t="inlineStr"/>
+      <c r="K953" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L953" t="n">
         <v>1</v>
       </c>
@@ -31867,11 +32617,17 @@
         <v>-3076617.155577813</v>
       </c>
       <c r="H954" t="n">
-        <v>0</v>
-      </c>
-      <c r="I954" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I954" t="n">
+        <v>3.27</v>
+      </c>
       <c r="J954" t="inlineStr"/>
-      <c r="K954" t="inlineStr"/>
+      <c r="K954" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L954" t="n">
         <v>1</v>
       </c>
@@ -31904,7 +32660,11 @@
       </c>
       <c r="I955" t="inlineStr"/>
       <c r="J955" t="inlineStr"/>
-      <c r="K955" t="inlineStr"/>
+      <c r="K955" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L955" t="n">
         <v>1</v>
       </c>
@@ -31933,11 +32693,17 @@
         <v>-3105577.748577813</v>
       </c>
       <c r="H956" t="n">
-        <v>0</v>
-      </c>
-      <c r="I956" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I956" t="n">
+        <v>3.28</v>
+      </c>
       <c r="J956" t="inlineStr"/>
-      <c r="K956" t="inlineStr"/>
+      <c r="K956" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L956" t="n">
         <v>1</v>
       </c>
@@ -31966,11 +32732,17 @@
         <v>-2970694.386577813</v>
       </c>
       <c r="H957" t="n">
-        <v>0</v>
-      </c>
-      <c r="I957" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I957" t="n">
+        <v>3.26</v>
+      </c>
       <c r="J957" t="inlineStr"/>
-      <c r="K957" t="inlineStr"/>
+      <c r="K957" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L957" t="n">
         <v>1</v>
       </c>
@@ -32003,7 +32775,11 @@
       </c>
       <c r="I958" t="inlineStr"/>
       <c r="J958" t="inlineStr"/>
-      <c r="K958" t="inlineStr"/>
+      <c r="K958" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L958" t="n">
         <v>1</v>
       </c>
@@ -32036,7 +32812,11 @@
       </c>
       <c r="I959" t="inlineStr"/>
       <c r="J959" t="inlineStr"/>
-      <c r="K959" t="inlineStr"/>
+      <c r="K959" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L959" t="n">
         <v>1</v>
       </c>
@@ -32069,7 +32849,11 @@
       </c>
       <c r="I960" t="inlineStr"/>
       <c r="J960" t="inlineStr"/>
-      <c r="K960" t="inlineStr"/>
+      <c r="K960" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L960" t="n">
         <v>1</v>
       </c>
@@ -32102,7 +32886,11 @@
       </c>
       <c r="I961" t="inlineStr"/>
       <c r="J961" t="inlineStr"/>
-      <c r="K961" t="inlineStr"/>
+      <c r="K961" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L961" t="n">
         <v>1</v>
       </c>
@@ -32135,7 +32923,11 @@
       </c>
       <c r="I962" t="inlineStr"/>
       <c r="J962" t="inlineStr"/>
-      <c r="K962" t="inlineStr"/>
+      <c r="K962" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L962" t="n">
         <v>1</v>
       </c>
@@ -32168,7 +32960,11 @@
       </c>
       <c r="I963" t="inlineStr"/>
       <c r="J963" t="inlineStr"/>
-      <c r="K963" t="inlineStr"/>
+      <c r="K963" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L963" t="n">
         <v>1</v>
       </c>
@@ -32197,15 +32993,15 @@
         <v>-3614359.001577813</v>
       </c>
       <c r="H964" t="n">
-        <v>1</v>
-      </c>
-      <c r="I964" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="J964" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="K964" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I964" t="inlineStr"/>
+      <c r="J964" t="inlineStr"/>
+      <c r="K964" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L964" t="n">
         <v>1</v>
       </c>
@@ -32234,17 +33030,13 @@
         <v>-3927028.500577813</v>
       </c>
       <c r="H965" t="n">
-        <v>1</v>
-      </c>
-      <c r="I965" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="J965" t="n">
-        <v>3.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I965" t="inlineStr"/>
+      <c r="J965" t="inlineStr"/>
       <c r="K965" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L965" t="n">
@@ -32275,14 +33067,10 @@
         <v>-3677836.520577813</v>
       </c>
       <c r="H966" t="n">
-        <v>1</v>
-      </c>
-      <c r="I966" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="J966" t="n">
-        <v>3.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I966" t="inlineStr"/>
+      <c r="J966" t="inlineStr"/>
       <c r="K966" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32319,9 +33107,7 @@
         <v>0</v>
       </c>
       <c r="I967" t="inlineStr"/>
-      <c r="J967" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J967" t="inlineStr"/>
       <c r="K967" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32355,14 +33141,10 @@
         <v>-3647430.996577813</v>
       </c>
       <c r="H968" t="n">
-        <v>1</v>
-      </c>
-      <c r="I968" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="J968" t="n">
-        <v>3.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I968" t="inlineStr"/>
+      <c r="J968" t="inlineStr"/>
       <c r="K968" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32396,14 +33178,10 @@
         <v>-3183516.507577813</v>
       </c>
       <c r="H969" t="n">
-        <v>1</v>
-      </c>
-      <c r="I969" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="J969" t="n">
-        <v>3.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I969" t="inlineStr"/>
+      <c r="J969" t="inlineStr"/>
       <c r="K969" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32440,9 +33218,7 @@
         <v>0</v>
       </c>
       <c r="I970" t="inlineStr"/>
-      <c r="J970" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J970" t="inlineStr"/>
       <c r="K970" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32479,9 +33255,7 @@
         <v>0</v>
       </c>
       <c r="I971" t="inlineStr"/>
-      <c r="J971" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J971" t="inlineStr"/>
       <c r="K971" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32518,9 +33292,7 @@
         <v>0</v>
       </c>
       <c r="I972" t="inlineStr"/>
-      <c r="J972" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J972" t="inlineStr"/>
       <c r="K972" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32557,9 +33329,7 @@
         <v>0</v>
       </c>
       <c r="I973" t="inlineStr"/>
-      <c r="J973" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J973" t="inlineStr"/>
       <c r="K973" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32596,9 +33366,7 @@
         <v>0</v>
       </c>
       <c r="I974" t="inlineStr"/>
-      <c r="J974" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J974" t="inlineStr"/>
       <c r="K974" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32635,9 +33403,7 @@
         <v>0</v>
       </c>
       <c r="I975" t="inlineStr"/>
-      <c r="J975" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J975" t="inlineStr"/>
       <c r="K975" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32674,9 +33440,7 @@
         <v>0</v>
       </c>
       <c r="I976" t="inlineStr"/>
-      <c r="J976" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J976" t="inlineStr"/>
       <c r="K976" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32713,9 +33477,7 @@
         <v>0</v>
       </c>
       <c r="I977" t="inlineStr"/>
-      <c r="J977" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J977" t="inlineStr"/>
       <c r="K977" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32752,9 +33514,7 @@
         <v>0</v>
       </c>
       <c r="I978" t="inlineStr"/>
-      <c r="J978" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J978" t="inlineStr"/>
       <c r="K978" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32791,9 +33551,7 @@
         <v>0</v>
       </c>
       <c r="I979" t="inlineStr"/>
-      <c r="J979" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J979" t="inlineStr"/>
       <c r="K979" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32830,9 +33588,7 @@
         <v>0</v>
       </c>
       <c r="I980" t="inlineStr"/>
-      <c r="J980" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J980" t="inlineStr"/>
       <c r="K980" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32869,9 +33625,7 @@
         <v>0</v>
       </c>
       <c r="I981" t="inlineStr"/>
-      <c r="J981" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J981" t="inlineStr"/>
       <c r="K981" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32908,9 +33662,7 @@
         <v>0</v>
       </c>
       <c r="I982" t="inlineStr"/>
-      <c r="J982" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J982" t="inlineStr"/>
       <c r="K982" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32947,9 +33699,7 @@
         <v>0</v>
       </c>
       <c r="I983" t="inlineStr"/>
-      <c r="J983" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J983" t="inlineStr"/>
       <c r="K983" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32983,14 +33733,10 @@
         <v>-3538166.640577813</v>
       </c>
       <c r="H984" t="n">
-        <v>1</v>
-      </c>
-      <c r="I984" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="J984" t="n">
-        <v>3.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I984" t="inlineStr"/>
+      <c r="J984" t="inlineStr"/>
       <c r="K984" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33024,14 +33770,10 @@
         <v>-3803707.229577813</v>
       </c>
       <c r="H985" t="n">
-        <v>1</v>
-      </c>
-      <c r="I985" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="J985" t="n">
-        <v>3.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I985" t="inlineStr"/>
+      <c r="J985" t="inlineStr"/>
       <c r="K985" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33065,14 +33807,10 @@
         <v>-3803707.229577813</v>
       </c>
       <c r="H986" t="n">
-        <v>1</v>
-      </c>
-      <c r="I986" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="J986" t="n">
-        <v>3.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I986" t="inlineStr"/>
+      <c r="J986" t="inlineStr"/>
       <c r="K986" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33106,14 +33844,10 @@
         <v>-4116553.345577813</v>
       </c>
       <c r="H987" t="n">
-        <v>1</v>
-      </c>
-      <c r="I987" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="J987" t="n">
-        <v>3.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I987" t="inlineStr"/>
+      <c r="J987" t="inlineStr"/>
       <c r="K987" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33147,14 +33881,10 @@
         <v>-4116553.345577813</v>
       </c>
       <c r="H988" t="n">
-        <v>1</v>
-      </c>
-      <c r="I988" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="J988" t="n">
-        <v>3.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I988" t="inlineStr"/>
+      <c r="J988" t="inlineStr"/>
       <c r="K988" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33188,14 +33918,10 @@
         <v>-3857013.884577813</v>
       </c>
       <c r="H989" t="n">
-        <v>1</v>
-      </c>
-      <c r="I989" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="J989" t="n">
-        <v>3.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I989" t="inlineStr"/>
+      <c r="J989" t="inlineStr"/>
       <c r="K989" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33229,14 +33955,10 @@
         <v>-4185901.640577813</v>
       </c>
       <c r="H990" t="n">
-        <v>1</v>
-      </c>
-      <c r="I990" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="J990" t="n">
-        <v>3.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I990" t="inlineStr"/>
+      <c r="J990" t="inlineStr"/>
       <c r="K990" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33270,14 +33992,10 @@
         <v>-4057313.664577813</v>
       </c>
       <c r="H991" t="n">
-        <v>1</v>
-      </c>
-      <c r="I991" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="J991" t="n">
-        <v>3.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I991" t="inlineStr"/>
+      <c r="J991" t="inlineStr"/>
       <c r="K991" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33311,14 +34029,10 @@
         <v>-4403549.843577813</v>
       </c>
       <c r="H992" t="n">
-        <v>1</v>
-      </c>
-      <c r="I992" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="J992" t="n">
-        <v>3.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I992" t="inlineStr"/>
+      <c r="J992" t="inlineStr"/>
       <c r="K992" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33352,14 +34066,10 @@
         <v>-4085153.325577813</v>
       </c>
       <c r="H993" t="n">
-        <v>1</v>
-      </c>
-      <c r="I993" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="J993" t="n">
-        <v>3.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I993" t="inlineStr"/>
+      <c r="J993" t="inlineStr"/>
       <c r="K993" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33393,14 +34103,10 @@
         <v>-4085153.325577813</v>
       </c>
       <c r="H994" t="n">
-        <v>1</v>
-      </c>
-      <c r="I994" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="J994" t="n">
-        <v>3.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I994" t="inlineStr"/>
+      <c r="J994" t="inlineStr"/>
       <c r="K994" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33434,14 +34140,10 @@
         <v>-4085153.325577813</v>
       </c>
       <c r="H995" t="n">
-        <v>1</v>
-      </c>
-      <c r="I995" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="J995" t="n">
-        <v>3.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I995" t="inlineStr"/>
+      <c r="J995" t="inlineStr"/>
       <c r="K995" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33475,14 +34177,10 @@
         <v>-4085153.325577813</v>
       </c>
       <c r="H996" t="n">
-        <v>1</v>
-      </c>
-      <c r="I996" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="J996" t="n">
-        <v>3.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I996" t="inlineStr"/>
+      <c r="J996" t="inlineStr"/>
       <c r="K996" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33521,9 +34219,7 @@
       <c r="I997" t="n">
         <v>3.28</v>
       </c>
-      <c r="J997" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J997" t="inlineStr"/>
       <c r="K997" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33562,9 +34258,7 @@
       <c r="I998" t="n">
         <v>3.29</v>
       </c>
-      <c r="J998" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J998" t="inlineStr"/>
       <c r="K998" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33598,14 +34292,10 @@
         <v>-4078726.134577813</v>
       </c>
       <c r="H999" t="n">
-        <v>1</v>
-      </c>
-      <c r="I999" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="J999" t="n">
-        <v>3.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I999" t="inlineStr"/>
+      <c r="J999" t="inlineStr"/>
       <c r="K999" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33644,9 +34334,7 @@
       <c r="I1000" t="n">
         <v>3.28</v>
       </c>
-      <c r="J1000" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1000" t="inlineStr"/>
       <c r="K1000" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33685,9 +34373,7 @@
       <c r="I1001" t="n">
         <v>3.28</v>
       </c>
-      <c r="J1001" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1001" t="inlineStr"/>
       <c r="K1001" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33721,14 +34407,10 @@
         <v>-3795900.256577813</v>
       </c>
       <c r="H1002" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1002" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="J1002" t="n">
-        <v>3.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1002" t="inlineStr"/>
+      <c r="J1002" t="inlineStr"/>
       <c r="K1002" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33762,14 +34444,10 @@
         <v>-4034292.060577813</v>
       </c>
       <c r="H1003" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1003" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="J1003" t="n">
-        <v>3.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1003" t="inlineStr"/>
+      <c r="J1003" t="inlineStr"/>
       <c r="K1003" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33808,9 +34486,7 @@
       <c r="I1004" t="n">
         <v>3.28</v>
       </c>
-      <c r="J1004" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1004" t="inlineStr"/>
       <c r="K1004" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33844,14 +34520,10 @@
         <v>-3750313.671577813</v>
       </c>
       <c r="H1005" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1005" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="J1005" t="n">
-        <v>3.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1005" t="inlineStr"/>
+      <c r="J1005" t="inlineStr"/>
       <c r="K1005" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33885,14 +34557,10 @@
         <v>-3750313.671577813</v>
       </c>
       <c r="H1006" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1006" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="J1006" t="n">
-        <v>3.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1006" t="inlineStr"/>
+      <c r="J1006" t="inlineStr"/>
       <c r="K1006" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33926,14 +34594,10 @@
         <v>-3730383.671577813</v>
       </c>
       <c r="H1007" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1007" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="J1007" t="n">
-        <v>3.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1007" t="inlineStr"/>
+      <c r="J1007" t="inlineStr"/>
       <c r="K1007" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -33967,14 +34631,10 @@
         <v>-3730383.671577813</v>
       </c>
       <c r="H1008" t="n">
-        <v>1</v>
-      </c>
-      <c r="I1008" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J1008" t="n">
-        <v>3.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I1008" t="inlineStr"/>
+      <c r="J1008" t="inlineStr"/>
       <c r="K1008" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34011,9 +34671,7 @@
         <v>0</v>
       </c>
       <c r="I1009" t="inlineStr"/>
-      <c r="J1009" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1009" t="inlineStr"/>
       <c r="K1009" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34050,9 +34708,7 @@
         <v>0</v>
       </c>
       <c r="I1010" t="inlineStr"/>
-      <c r="J1010" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1010" t="inlineStr"/>
       <c r="K1010" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34089,9 +34745,7 @@
         <v>0</v>
       </c>
       <c r="I1011" t="inlineStr"/>
-      <c r="J1011" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1011" t="inlineStr"/>
       <c r="K1011" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34128,9 +34782,7 @@
         <v>0</v>
       </c>
       <c r="I1012" t="inlineStr"/>
-      <c r="J1012" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1012" t="inlineStr"/>
       <c r="K1012" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34167,9 +34819,7 @@
         <v>0</v>
       </c>
       <c r="I1013" t="inlineStr"/>
-      <c r="J1013" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1013" t="inlineStr"/>
       <c r="K1013" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34206,9 +34856,7 @@
         <v>0</v>
       </c>
       <c r="I1014" t="inlineStr"/>
-      <c r="J1014" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1014" t="inlineStr"/>
       <c r="K1014" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34245,9 +34893,7 @@
         <v>0</v>
       </c>
       <c r="I1015" t="inlineStr"/>
-      <c r="J1015" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1015" t="inlineStr"/>
       <c r="K1015" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34284,9 +34930,7 @@
         <v>0</v>
       </c>
       <c r="I1016" t="inlineStr"/>
-      <c r="J1016" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1016" t="inlineStr"/>
       <c r="K1016" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34323,9 +34967,7 @@
         <v>0</v>
       </c>
       <c r="I1017" t="inlineStr"/>
-      <c r="J1017" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1017" t="inlineStr"/>
       <c r="K1017" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34362,9 +35004,7 @@
         <v>0</v>
       </c>
       <c r="I1018" t="inlineStr"/>
-      <c r="J1018" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1018" t="inlineStr"/>
       <c r="K1018" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34401,9 +35041,7 @@
         <v>0</v>
       </c>
       <c r="I1019" t="inlineStr"/>
-      <c r="J1019" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1019" t="inlineStr"/>
       <c r="K1019" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34440,9 +35078,7 @@
         <v>0</v>
       </c>
       <c r="I1020" t="inlineStr"/>
-      <c r="J1020" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1020" t="inlineStr"/>
       <c r="K1020" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34479,9 +35115,7 @@
         <v>0</v>
       </c>
       <c r="I1021" t="inlineStr"/>
-      <c r="J1021" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1021" t="inlineStr"/>
       <c r="K1021" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34518,9 +35152,7 @@
         <v>0</v>
       </c>
       <c r="I1022" t="inlineStr"/>
-      <c r="J1022" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1022" t="inlineStr"/>
       <c r="K1022" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34557,9 +35189,7 @@
         <v>0</v>
       </c>
       <c r="I1023" t="inlineStr"/>
-      <c r="J1023" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1023" t="inlineStr"/>
       <c r="K1023" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34596,9 +35226,7 @@
         <v>0</v>
       </c>
       <c r="I1024" t="inlineStr"/>
-      <c r="J1024" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1024" t="inlineStr"/>
       <c r="K1024" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34635,9 +35263,7 @@
         <v>0</v>
       </c>
       <c r="I1025" t="inlineStr"/>
-      <c r="J1025" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1025" t="inlineStr"/>
       <c r="K1025" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34674,9 +35300,7 @@
         <v>0</v>
       </c>
       <c r="I1026" t="inlineStr"/>
-      <c r="J1026" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1026" t="inlineStr"/>
       <c r="K1026" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34713,9 +35337,7 @@
         <v>0</v>
       </c>
       <c r="I1027" t="inlineStr"/>
-      <c r="J1027" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1027" t="inlineStr"/>
       <c r="K1027" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34752,9 +35374,7 @@
         <v>0</v>
       </c>
       <c r="I1028" t="inlineStr"/>
-      <c r="J1028" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1028" t="inlineStr"/>
       <c r="K1028" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34791,9 +35411,7 @@
         <v>0</v>
       </c>
       <c r="I1029" t="inlineStr"/>
-      <c r="J1029" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1029" t="inlineStr"/>
       <c r="K1029" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34830,9 +35448,7 @@
         <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
-      <c r="J1030" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1030" t="inlineStr"/>
       <c r="K1030" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34869,9 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I1031" t="inlineStr"/>
-      <c r="J1031" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1031" t="inlineStr"/>
       <c r="K1031" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34908,9 +35522,7 @@
         <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
-      <c r="J1032" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1032" t="inlineStr"/>
       <c r="K1032" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34947,9 +35559,7 @@
         <v>0</v>
       </c>
       <c r="I1033" t="inlineStr"/>
-      <c r="J1033" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1033" t="inlineStr"/>
       <c r="K1033" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -34986,9 +35596,7 @@
         <v>0</v>
       </c>
       <c r="I1034" t="inlineStr"/>
-      <c r="J1034" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1034" t="inlineStr"/>
       <c r="K1034" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35025,9 +35633,7 @@
         <v>0</v>
       </c>
       <c r="I1035" t="inlineStr"/>
-      <c r="J1035" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1035" t="inlineStr"/>
       <c r="K1035" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35064,9 +35670,7 @@
         <v>0</v>
       </c>
       <c r="I1036" t="inlineStr"/>
-      <c r="J1036" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1036" t="inlineStr"/>
       <c r="K1036" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35103,9 +35707,7 @@
         <v>0</v>
       </c>
       <c r="I1037" t="inlineStr"/>
-      <c r="J1037" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1037" t="inlineStr"/>
       <c r="K1037" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35142,9 +35744,7 @@
         <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
-      <c r="J1038" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1038" t="inlineStr"/>
       <c r="K1038" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35181,9 +35781,7 @@
         <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
-      <c r="J1039" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1039" t="inlineStr"/>
       <c r="K1039" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35220,9 +35818,7 @@
         <v>0</v>
       </c>
       <c r="I1040" t="inlineStr"/>
-      <c r="J1040" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1040" t="inlineStr"/>
       <c r="K1040" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35259,9 +35855,7 @@
         <v>0</v>
       </c>
       <c r="I1041" t="inlineStr"/>
-      <c r="J1041" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1041" t="inlineStr"/>
       <c r="K1041" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35298,9 +35892,7 @@
         <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
-      <c r="J1042" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1042" t="inlineStr"/>
       <c r="K1042" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -35334,19 +35926,17 @@
         <v>-4019084.502377814</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
-      <c r="J1043" t="n">
-        <v>3.28</v>
-      </c>
+      <c r="J1043" t="inlineStr"/>
       <c r="K1043" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L1043" t="n">
-        <v>0.9797560975609757</v>
+        <v>1</v>
       </c>
       <c r="M1043" t="inlineStr"/>
     </row>
@@ -35377,7 +35967,11 @@
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
-      <c r="K1044" t="inlineStr"/>
+      <c r="K1044" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1044" t="n">
         <v>1</v>
       </c>
@@ -35406,11 +36000,15 @@
         <v>-3450586.829377814</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
-      <c r="K1045" t="inlineStr"/>
+      <c r="K1045" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1045" t="n">
         <v>1</v>
       </c>
@@ -35439,11 +36037,15 @@
         <v>-3450586.829377814</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
-      <c r="K1046" t="inlineStr"/>
+      <c r="K1046" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1046" t="n">
         <v>1</v>
       </c>
@@ -35472,11 +36074,15 @@
         <v>-3819191.619177814</v>
       </c>
       <c r="H1047" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1047" t="inlineStr"/>
       <c r="J1047" t="inlineStr"/>
-      <c r="K1047" t="inlineStr"/>
+      <c r="K1047" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1047" t="n">
         <v>1</v>
       </c>
@@ -35509,7 +36115,11 @@
       </c>
       <c r="I1048" t="inlineStr"/>
       <c r="J1048" t="inlineStr"/>
-      <c r="K1048" t="inlineStr"/>
+      <c r="K1048" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1048" t="n">
         <v>1</v>
       </c>
@@ -35542,7 +36152,11 @@
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
-      <c r="K1049" t="inlineStr"/>
+      <c r="K1049" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1049" t="n">
         <v>1</v>
       </c>
@@ -35575,7 +36189,11 @@
       </c>
       <c r="I1050" t="inlineStr"/>
       <c r="J1050" t="inlineStr"/>
-      <c r="K1050" t="inlineStr"/>
+      <c r="K1050" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1050" t="n">
         <v>1</v>
       </c>
@@ -35608,7 +36226,11 @@
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
-      <c r="K1051" t="inlineStr"/>
+      <c r="K1051" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1051" t="n">
         <v>1</v>
       </c>
@@ -35641,7 +36263,11 @@
       </c>
       <c r="I1052" t="inlineStr"/>
       <c r="J1052" t="inlineStr"/>
-      <c r="K1052" t="inlineStr"/>
+      <c r="K1052" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1052" t="n">
         <v>1</v>
       </c>
@@ -35670,11 +36296,15 @@
         <v>-3546858.924177814</v>
       </c>
       <c r="H1053" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1053" t="inlineStr"/>
       <c r="J1053" t="inlineStr"/>
-      <c r="K1053" t="inlineStr"/>
+      <c r="K1053" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1053" t="n">
         <v>1</v>
       </c>
@@ -35703,11 +36333,15 @@
         <v>-3546858.924177814</v>
       </c>
       <c r="H1054" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1054" t="inlineStr"/>
       <c r="J1054" t="inlineStr"/>
-      <c r="K1054" t="inlineStr"/>
+      <c r="K1054" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1054" t="n">
         <v>1</v>
       </c>
@@ -35736,11 +36370,15 @@
         <v>-3191400.474177814</v>
       </c>
       <c r="H1055" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1055" t="inlineStr"/>
       <c r="J1055" t="inlineStr"/>
-      <c r="K1055" t="inlineStr"/>
+      <c r="K1055" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1055" t="n">
         <v>1</v>
       </c>
@@ -35769,11 +36407,15 @@
         <v>-3190247.566277814</v>
       </c>
       <c r="H1056" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1056" t="inlineStr"/>
       <c r="J1056" t="inlineStr"/>
-      <c r="K1056" t="inlineStr"/>
+      <c r="K1056" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1056" t="n">
         <v>1</v>
       </c>
@@ -35802,11 +36444,15 @@
         <v>-3247780.566277814</v>
       </c>
       <c r="H1057" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1057" t="inlineStr"/>
       <c r="J1057" t="inlineStr"/>
-      <c r="K1057" t="inlineStr"/>
+      <c r="K1057" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1057" t="n">
         <v>1</v>
       </c>
@@ -35835,11 +36481,15 @@
         <v>-3097226.575477814</v>
       </c>
       <c r="H1058" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1058" t="inlineStr"/>
       <c r="J1058" t="inlineStr"/>
-      <c r="K1058" t="inlineStr"/>
+      <c r="K1058" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1058" t="n">
         <v>1</v>
       </c>
@@ -35868,11 +36518,15 @@
         <v>-3415165.977477814</v>
       </c>
       <c r="H1059" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1059" t="inlineStr"/>
       <c r="J1059" t="inlineStr"/>
-      <c r="K1059" t="inlineStr"/>
+      <c r="K1059" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1059" t="n">
         <v>1</v>
       </c>
@@ -35901,11 +36555,15 @@
         <v>-3415165.977477814</v>
       </c>
       <c r="H1060" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1060" t="inlineStr"/>
       <c r="J1060" t="inlineStr"/>
-      <c r="K1060" t="inlineStr"/>
+      <c r="K1060" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1060" t="n">
         <v>1</v>
       </c>
@@ -35934,11 +36592,15 @@
         <v>-3389822.977477814</v>
       </c>
       <c r="H1061" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1061" t="inlineStr"/>
       <c r="J1061" t="inlineStr"/>
-      <c r="K1061" t="inlineStr"/>
+      <c r="K1061" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1061" t="n">
         <v>1</v>
       </c>
@@ -35967,11 +36629,15 @@
         <v>-3389822.977477814</v>
       </c>
       <c r="H1062" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1062" t="inlineStr"/>
       <c r="J1062" t="inlineStr"/>
-      <c r="K1062" t="inlineStr"/>
+      <c r="K1062" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1062" t="n">
         <v>1</v>
       </c>
@@ -36000,11 +36666,15 @@
         <v>-3509029.561477814</v>
       </c>
       <c r="H1063" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1063" t="inlineStr"/>
       <c r="J1063" t="inlineStr"/>
-      <c r="K1063" t="inlineStr"/>
+      <c r="K1063" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1063" t="n">
         <v>1</v>
       </c>
@@ -36033,11 +36703,15 @@
         <v>-3509029.561477814</v>
       </c>
       <c r="H1064" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
-      <c r="K1064" t="inlineStr"/>
+      <c r="K1064" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1064" t="n">
         <v>1</v>
       </c>
@@ -36066,11 +36740,15 @@
         <v>-3509029.561477814</v>
       </c>
       <c r="H1065" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
-      <c r="K1065" t="inlineStr"/>
+      <c r="K1065" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1065" t="n">
         <v>1</v>
       </c>
@@ -36099,11 +36777,15 @@
         <v>-3509029.561477814</v>
       </c>
       <c r="H1066" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
-      <c r="K1066" t="inlineStr"/>
+      <c r="K1066" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1066" t="n">
         <v>1</v>
       </c>
@@ -36132,17 +36814,21 @@
         <v>-3509029.561477814</v>
       </c>
       <c r="H1067" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
-      <c r="K1067" t="inlineStr"/>
+      <c r="K1067" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L1067" t="n">
         <v>1</v>
       </c>
       <c r="M1067" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>